--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\GitHub\econom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE16234-D0F6-4621-8F69-3B5DD7A78FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14541618-E3AD-4D49-9C26-F3EE88D0D960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,81 +469,81 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3">
-        <v>75400</v>
+        <v>30000</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F33" si="0">LOG(E2)</f>
-        <v>4.8773713458697738</v>
+        <f>LOG(E2)</f>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G2" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2" s="1">
         <f>IF(I2&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>4.8750612633917001</v>
+        <f>LOG(E3)</f>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G3" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <f>IF(I3&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -552,57 +552,57 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3">
-        <v>73400</v>
+        <v>25000</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>4.8656960599160701</v>
+        <f>LOG(E4)</f>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G4" s="1">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <f>IF(I4&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
       </c>
       <c r="E5" s="3">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>4.8129133566428557</v>
+        <f>LOG(E5)</f>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G5" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
       </c>
       <c r="E6" s="3">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>4.7781512503836439</v>
+        <f>LOG(E6)</f>
+        <v>4.1760912590556813</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -654,66 +654,66 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
       </c>
       <c r="E7" s="3">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>4.7781512503836439</v>
+        <f>LOG(E7)</f>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G7" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <f>IF(I7&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>40</v>
       </c>
       <c r="E8" s="3">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>4.7781512503836439</v>
+        <f>LOG(E8)</f>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G8" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -723,52 +723,52 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>4.7781512503836439</v>
+        <f>LOG(E9)</f>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G9" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <f>IF(I9&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -777,69 +777,69 @@
         <v>40</v>
       </c>
       <c r="E10" s="3">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>4.7403626894942441</v>
+        <f>LOG(E10)</f>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G10" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <f>IF(I10&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>55000</v>
+        <v>27000</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>4.7403626894942441</v>
+        <f>LOG(E11)</f>
+        <v>4.4313637641589869</v>
       </c>
       <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3</v>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11" s="1">
         <f>IF(I11&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -851,32 +851,32 @@
         <v>40</v>
       </c>
       <c r="E12" s="3">
-        <v>53500</v>
+        <v>60000</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>4.7283537820212285</v>
+        <f>LOG(E12)</f>
+        <v>4.7781512503836439</v>
       </c>
       <c r="G12" s="1">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <f>IF(I12&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -885,35 +885,35 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3">
-        <v>51500</v>
+        <v>25000</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>4.7118072290411908</v>
+        <f>LOG(E13)</f>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G13" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <f>IF(I13&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -925,165 +925,165 @@
         <v>40</v>
       </c>
       <c r="E14" s="3">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6989700043360187</v>
+        <f>LOG(E14)</f>
+        <v>4.653212513775344</v>
       </c>
       <c r="G14" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14" s="1">
-        <v>1</v>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14" s="1">
         <f>IF(I14&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>40</v>
       </c>
       <c r="E15" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6989700043360187</v>
+        <f>LOG(E15)</f>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <f>IF(I15&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6989700043360187</v>
+        <f>LOG(E16)</f>
+        <v>4.4471580313422194</v>
       </c>
       <c r="G16" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <f>IF(I16&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3">
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6989700043360187</v>
+        <f>LOG(E17)</f>
+        <v>4.3802112417116064</v>
       </c>
       <c r="G17" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <f>IF(I17&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
       </c>
       <c r="E18" s="3">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6812412373755876</v>
+        <f>LOG(E18)</f>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G18" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1110,69 +1110,69 @@
         <v>40</v>
       </c>
       <c r="E19" s="3">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6812412373755876</v>
+        <f>LOG(E19)</f>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G19" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19" s="1">
         <f>IF(I19&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3">
-        <v>47000</v>
+        <v>32000</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6720978579357171</v>
+        <f>LOG(E20)</f>
+        <v>4.5051499783199063</v>
       </c>
       <c r="G20" s="1">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
-      <c r="I20" s="1">
-        <v>1</v>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20" s="1">
         <f>IF(I20&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -1181,57 +1181,57 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E21" s="3">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6627578316815743</v>
+        <f>LOG(E21)</f>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G21" s="1">
         <v>9</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
         <f>IF(I21&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
       </c>
       <c r="E22" s="3">
-        <v>46000</v>
+        <v>19000</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6627578316815743</v>
+        <f>LOG(E22)</f>
+        <v>4.2787536009528289</v>
       </c>
       <c r="G22" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1241,52 +1241,52 @@
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="E23" s="3">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>4.653212513775344</v>
+        <f>LOG(E23)</f>
+        <v>4.204119982655925</v>
       </c>
       <c r="G23" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="J23" s="1">
         <f>IF(I23&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1295,17 +1295,17 @@
         <v>40</v>
       </c>
       <c r="E24" s="3">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>4.653212513775344</v>
+        <f>LOG(E24)</f>
+        <v>4.1760912590556813</v>
       </c>
       <c r="G24" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1315,71 +1315,71 @@
         <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
         <v>40</v>
       </c>
       <c r="E25" s="3">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>4.653212513775344</v>
+        <f>LOG(E25)</f>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G25" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>10</v>
-      </c>
-      <c r="I25" s="1">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <f>IF(I25&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E26" s="3">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>4.653212513775344</v>
+        <f>LOG(E26)</f>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G26" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I26" s="1">
         <v>2</v>
@@ -1389,81 +1389,81 @@
         <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
         <v>40</v>
       </c>
       <c r="E27" s="3">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>4.653212513775344</v>
+        <f>LOG(E27)</f>
+        <v>4.4623979978989565</v>
       </c>
       <c r="G27" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="J27" s="1">
         <f>IF(I27&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>40</v>
       </c>
       <c r="E28" s="3">
-        <v>45000</v>
+        <v>20400</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>4.653212513775344</v>
+        <f>LOG(E28)</f>
+        <v>4.3096301674258983</v>
       </c>
       <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28">
         <v>3</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
+      <c r="I28" s="1">
+        <v>2</v>
       </c>
       <c r="J28" s="1">
         <f>IF(I28&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1480,17 +1480,17 @@
         <v>40</v>
       </c>
       <c r="E29" s="3">
-        <v>44000</v>
+        <v>60000</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6434526764861879</v>
+        <f>LOG(E29)</f>
+        <v>4.7781512503836439</v>
       </c>
       <c r="G29" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1500,197 +1500,197 @@
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <v>40</v>
       </c>
       <c r="E30" s="3">
-        <v>43000</v>
+        <v>44000</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6334684555795862</v>
+        <f>LOG(E30)</f>
+        <v>4.6434526764861879</v>
       </c>
       <c r="G30" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
       </c>
       <c r="J30" s="1">
         <f>IF(I30&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E31" s="3">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6334684555795862</v>
+        <f>LOG(E31)</f>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G31" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>10</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
       <c r="J31" s="1">
         <f>IF(I31&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
         <v>40</v>
       </c>
       <c r="E32" s="3">
-        <v>43000</v>
+        <v>35000</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6334684555795862</v>
+        <f>LOG(E32)</f>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G32" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
       </c>
       <c r="J32" s="1">
         <f>IF(I32&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E33" s="3">
-        <v>40500</v>
+        <v>35000</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6074550232146683</v>
+        <f>LOG(E33)</f>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G33" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
       </c>
       <c r="J33" s="1">
         <f>IF(I33&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
         <v>40</v>
       </c>
       <c r="E34" s="3">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" ref="F34:F65" si="1">LOG(E34)</f>
-        <v>4.6020599913279625</v>
+        <f>LOG(E34)</f>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G34" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
       </c>
       <c r="J34" s="1">
         <f>IF(I34&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -1705,14 +1705,14 @@
         <v>40000</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="1"/>
+        <f>LOG(E35)</f>
         <v>4.6020599913279625</v>
       </c>
       <c r="G35" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -1722,12 +1722,12 @@
         <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -1736,57 +1736,57 @@
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E36" s="3">
         <v>40000</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="1"/>
+        <f>LOG(E36)</f>
         <v>4.6020599913279625</v>
       </c>
       <c r="G36" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36" s="1">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
       </c>
       <c r="J36" s="1">
         <f>IF(I36&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
         <v>40</v>
       </c>
       <c r="E37" s="3">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6020599913279625</v>
+        <f>LOG(E37)</f>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G37" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1796,15 +1796,15 @@
         <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -1813,35 +1813,35 @@
         <v>40</v>
       </c>
       <c r="E38" s="3">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6020599913279625</v>
+        <f>LOG(E38)</f>
+        <v>4.7403626894942441</v>
       </c>
       <c r="G38" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H38">
-        <v>5</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3</v>
       </c>
       <c r="J38" s="1">
         <f>IF(I38&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -1850,54 +1850,54 @@
         <v>40</v>
       </c>
       <c r="E39" s="3">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6020599913279625</v>
+        <f>LOG(E39)</f>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H39">
-        <v>11</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
       </c>
       <c r="J39" s="1">
         <f>IF(I39&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
         <v>40</v>
       </c>
       <c r="E40" s="3">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6020599913279625</v>
+        <f>LOG(E40)</f>
+        <v>4.3424226808222066</v>
       </c>
       <c r="G40" s="1">
         <v>10</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1907,37 +1907,37 @@
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <v>40</v>
       </c>
       <c r="E41" s="3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6020599913279625</v>
+        <f>LOG(E41)</f>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G41" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" s="1">
         <f>IF(I41&gt;0, 1,0)</f>
@@ -1949,81 +1949,81 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
         <v>40</v>
       </c>
       <c r="E42" s="3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6020599913279625</v>
+        <f>LOG(E42)</f>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G42" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" s="1">
         <f>IF(I42&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E43" s="3">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6020599913279625</v>
+        <f>LOG(E43)</f>
+        <v>4.6989700043360187</v>
       </c>
       <c r="G43" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
       </c>
       <c r="J43" s="1">
         <f>IF(I43&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -2035,54 +2035,54 @@
         <v>40</v>
       </c>
       <c r="E44" s="3">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6020599913279625</v>
+        <f>LOG(E44)</f>
+        <v>4.653212513775344</v>
       </c>
       <c r="G44" s="1">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>5</v>
-      </c>
-      <c r="I44" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
       </c>
       <c r="J44" s="1">
         <f>IF(I44&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E45" s="3">
         <v>40000</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="1"/>
+        <f>LOG(E45)</f>
         <v>4.6020599913279625</v>
       </c>
       <c r="G45" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I45" s="1">
         <v>2</v>
@@ -2092,234 +2092,234 @@
         <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E46" s="3">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6020599913279625</v>
+        <f>LOG(E46)</f>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G46" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H46">
         <v>10</v>
       </c>
       <c r="I46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" s="1">
         <f>IF(I46&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E47" s="3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6020599913279625</v>
+        <f>LOG(E47)</f>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G47" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
       </c>
       <c r="J47" s="1">
         <f>IF(I47&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E48" s="3">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="1"/>
-        <v>4.6020599913279625</v>
+        <f>LOG(E48)</f>
+        <v>4.7781512503836439</v>
       </c>
       <c r="G48" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1">
         <f>IF(I48&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E49" s="3">
-        <v>38000</v>
+        <v>55000</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5797835966168101</v>
+        <f>LOG(E49)</f>
+        <v>4.7403626894942441</v>
       </c>
       <c r="G49" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49">
         <v>10</v>
       </c>
-      <c r="I49">
-        <v>0</v>
+      <c r="I49" s="1">
+        <v>1</v>
       </c>
       <c r="J49" s="1">
         <f>IF(I49&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E50" s="3">
-        <v>38000</v>
+        <v>46000</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5797835966168101</v>
+        <f>LOG(E50)</f>
+        <v>4.6627578316815743</v>
       </c>
       <c r="G50" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="1">
         <f>IF(I50&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>48</v>
       </c>
       <c r="E51" s="3">
-        <v>37700</v>
+        <v>40000</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5763413502057926</v>
+        <f>LOG(E51)</f>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G51" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
       <c r="I51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" s="1">
         <f>IF(I51&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B52" s="1">
         <v>1</v>
@@ -2328,109 +2328,109 @@
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E52" s="3">
-        <v>37000</v>
+        <v>40000</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="1"/>
-        <v>4.568201724066995</v>
+        <f>LOG(E52)</f>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G52" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H52">
-        <v>10</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
       </c>
       <c r="J52" s="1">
         <f>IF(I52&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
         <v>48</v>
       </c>
       <c r="E53" s="3">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="1"/>
-        <v>4.568201724066995</v>
+        <f>LOG(E53)</f>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G53" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
-      <c r="I53">
-        <v>0</v>
+      <c r="I53" s="1">
+        <v>2</v>
       </c>
       <c r="J53" s="1">
         <f>IF(I53&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E54" s="3">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="1"/>
-        <v>4.568201724066995</v>
+        <f>LOG(E54)</f>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G54" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
       </c>
       <c r="J54" s="1">
         <f>IF(I54&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -2439,17 +2439,17 @@
         <v>1</v>
       </c>
       <c r="D55" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E55" s="3">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5563025007672868</v>
+        <f>LOG(E55)</f>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G55" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>10</v>
@@ -2462,34 +2462,34 @@
         <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
-      <c r="D56" s="1">
-        <v>48</v>
+      <c r="D56">
+        <v>40</v>
       </c>
       <c r="E56" s="3">
-        <v>35000</v>
+        <v>11600</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5440680443502757</v>
+        <f>LOG(E56)</f>
+        <v>4.0644579892269181</v>
       </c>
       <c r="G56" s="1">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I56" s="1">
         <v>2</v>
@@ -2499,12 +2499,12 @@
         <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -2516,17 +2516,17 @@
         <v>40</v>
       </c>
       <c r="E57" s="3">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5440680443502757</v>
+        <f>LOG(E57)</f>
+        <v>4.6812412373755876</v>
       </c>
       <c r="G57" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2536,126 +2536,126 @@
         <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="1">
         <v>40</v>
       </c>
       <c r="E58" s="3">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5440680443502757</v>
+        <f>LOG(E58)</f>
+        <v>4.653212513775344</v>
       </c>
       <c r="G58" s="1">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" s="1">
         <f>IF(I58&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E59" s="3">
         <v>35000</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="1"/>
+        <f>LOG(E59)</f>
         <v>4.5440680443502757</v>
       </c>
       <c r="G59" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H59">
-        <v>4</v>
-      </c>
-      <c r="I59" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
       </c>
       <c r="J59" s="1">
         <f>IF(I59&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
         <v>40</v>
       </c>
       <c r="E60" s="3">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5440680443502757</v>
+        <f>LOG(E60)</f>
+        <v>4.5185139398778871</v>
       </c>
       <c r="G60" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H60">
-        <v>6</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2</v>
       </c>
       <c r="J60" s="1">
         <f>IF(I60&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -2664,54 +2664,54 @@
         <v>48</v>
       </c>
       <c r="E61" s="3">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5440680443502757</v>
+        <f>LOG(E61)</f>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G61" s="1">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H61">
-        <v>10</v>
-      </c>
-      <c r="I61" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
       <c r="J61" s="1">
         <f>IF(I61&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
         <v>40</v>
       </c>
       <c r="E62" s="3">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5440680443502757</v>
+        <f>LOG(E62)</f>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G62" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>
@@ -2721,12 +2721,12 @@
         <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
@@ -2734,36 +2734,36 @@
       <c r="C63" s="1">
         <v>1</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>40</v>
       </c>
       <c r="E63" s="3">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5440680443502757</v>
+        <f>LOG(E63)</f>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G63" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H63">
-        <v>11</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
       </c>
       <c r="J63" s="1">
         <f>IF(I63&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -2772,57 +2772,57 @@
         <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E64" s="3">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5440680443502757</v>
+        <f>LOG(E64)</f>
+        <v>4.8750612633917001</v>
       </c>
       <c r="G64" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H64">
-        <v>5</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
       </c>
       <c r="J64" s="1">
         <f>IF(I64&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E65" s="3">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5440680443502757</v>
+        <f>LOG(E65)</f>
+        <v>4.5797835966168101</v>
       </c>
       <c r="G65" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2832,12 +2832,12 @@
         <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -2846,35 +2846,35 @@
         <v>1</v>
       </c>
       <c r="D66" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E66" s="3">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="F66" s="3">
         <f>LOG(E66)</f>
-        <v>4.5440680443502757</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G66" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
       </c>
       <c r="J66" s="1">
         <f>IF(I66&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
@@ -2886,32 +2886,32 @@
         <v>48</v>
       </c>
       <c r="E67" s="3">
-        <v>35000</v>
+        <v>26500</v>
       </c>
       <c r="F67" s="3">
         <f>LOG(E67)</f>
-        <v>4.5440680443502757</v>
+        <v>4.4232458739368079</v>
       </c>
       <c r="G67" s="1">
+        <v>4</v>
+      </c>
+      <c r="H67">
         <v>5</v>
       </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
+      <c r="I67" s="1">
+        <v>2</v>
       </c>
       <c r="J67" s="1">
         <f>IF(I67&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
@@ -2920,109 +2920,109 @@
         <v>1</v>
       </c>
       <c r="D68" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E68" s="3">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="F68" s="3">
         <f>LOG(E68)</f>
-        <v>4.5185139398778871</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G68" s="1">
+        <v>6</v>
+      </c>
+      <c r="H68">
         <v>12</v>
       </c>
-      <c r="H68">
-        <v>4</v>
-      </c>
       <c r="I68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" s="1">
         <f>IF(I68&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K68" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E69" s="3">
-        <v>32000</v>
+        <v>46000</v>
       </c>
       <c r="F69" s="3">
         <f>LOG(E69)</f>
-        <v>4.5051499783199063</v>
+        <v>4.6627578316815743</v>
       </c>
       <c r="G69" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H69">
-        <v>3</v>
-      </c>
-      <c r="I69" s="1">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
       </c>
       <c r="J69" s="1">
         <f>IF(I69&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E70" s="3">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="F70" s="3">
         <f>LOG(E70)</f>
-        <v>4.5051499783199063</v>
+        <v>4.568201724066995</v>
       </c>
       <c r="G70" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H70">
-        <v>10</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
       </c>
       <c r="J70" s="1">
         <f>IF(I70&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
@@ -3034,17 +3034,17 @@
         <v>40</v>
       </c>
       <c r="E71" s="3">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="F71" s="3">
         <f>LOG(E71)</f>
-        <v>4.4771212547196626</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G71" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I71" s="1">
         <v>1</v>
@@ -3054,21 +3054,21 @@
         <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
+        <v>36</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
         <v>48</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <v>40</v>
       </c>
       <c r="E72" s="3">
         <v>30000</v>
@@ -3078,91 +3078,91 @@
         <v>4.4771212547196626</v>
       </c>
       <c r="G72" s="1">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>4</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
       </c>
       <c r="J72" s="1">
         <f>IF(I72&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
         <v>40</v>
       </c>
       <c r="E73" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F73" s="3">
         <f>LOG(E73)</f>
-        <v>4.4771212547196626</v>
+        <v>4.6989700043360187</v>
       </c>
       <c r="G73" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H73">
-        <v>6</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
       </c>
       <c r="J73" s="1">
         <f>IF(I73&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
         <v>40</v>
       </c>
       <c r="E74" s="3">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="F74" s="3">
         <f>LOG(E74)</f>
-        <v>4.4771212547196626</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G74" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H74">
         <v>10</v>
       </c>
-      <c r="I74" s="1">
-        <v>1</v>
+      <c r="I74">
+        <v>0</v>
       </c>
       <c r="J74" s="1">
         <f>IF(I74&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
         <v>14</v>
@@ -3170,81 +3170,81 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
       </c>
       <c r="C75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E75" s="3">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="F75" s="3">
         <f>LOG(E75)</f>
-        <v>4.4771212547196626</v>
+        <v>4</v>
       </c>
       <c r="G75" s="1">
         <v>6</v>
       </c>
       <c r="H75">
-        <v>6</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I75" s="1">
+        <v>3</v>
       </c>
       <c r="J75" s="1">
         <f>IF(I75&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
       <c r="D76" s="1">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E76" s="3">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F76" s="3">
         <f>LOG(E76)</f>
-        <v>4.4771212547196626</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G76" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" s="1">
         <f>IF(I76&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K76" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -3253,20 +3253,20 @@
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E77" s="3">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="F77" s="3">
         <f>LOG(E77)</f>
-        <v>4.4771212547196626</v>
+        <v>4.6334684555795862</v>
       </c>
       <c r="G77" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H77">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I77" s="1">
         <v>2</v>
@@ -3276,108 +3276,108 @@
         <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E78" s="3">
-        <v>30000</v>
+        <v>40500</v>
       </c>
       <c r="F78" s="3">
         <f>LOG(E78)</f>
-        <v>4.4771212547196626</v>
+        <v>4.6074550232146683</v>
       </c>
       <c r="G78" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H78">
-        <v>6</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
       </c>
       <c r="J78" s="1">
         <f>IF(I78&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E79" s="3">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F79" s="3">
         <f>LOG(E79)</f>
-        <v>4.4771212547196626</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G79" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H79">
-        <v>2</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
       </c>
       <c r="J79" s="1">
         <f>IF(I79&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E80" s="3">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F80" s="3">
         <f>LOG(E80)</f>
-        <v>4.4771212547196626</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G80" s="1">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H80">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I80" s="1">
         <v>3</v>
@@ -3387,78 +3387,78 @@
         <v>1</v>
       </c>
       <c r="K80" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
       </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E81" s="3">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="F81" s="3">
         <f>LOG(E81)</f>
-        <v>4.4771212547196626</v>
+        <v>4.653212513775344</v>
       </c>
       <c r="G81" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H81">
-        <v>3</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I81" s="1">
+        <v>2</v>
       </c>
       <c r="J81" s="1">
         <f>IF(I81&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E82" s="3">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F82" s="3">
         <f>LOG(E82)</f>
-        <v>4.4771212547196626</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G82" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H82">
         <v>10</v>
       </c>
-      <c r="I82">
-        <v>0</v>
+      <c r="I82" s="1">
+        <v>1</v>
       </c>
       <c r="J82" s="1">
         <f>IF(I82&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="1">
         <v>7</v>
@@ -3466,81 +3466,81 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E83" s="3">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F83" s="3">
         <f>LOG(E83)</f>
-        <v>4.4771212547196626</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G83" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H83">
         <v>6</v>
       </c>
-      <c r="I83">
-        <v>0</v>
+      <c r="I83" s="1">
+        <v>1</v>
       </c>
       <c r="J83" s="1">
         <f>IF(I83&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
       </c>
       <c r="C84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="1">
         <v>40</v>
       </c>
       <c r="E84" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F84" s="3">
         <f>LOG(E84)</f>
-        <v>4.4771212547196626</v>
+        <v>4.6989700043360187</v>
       </c>
       <c r="G84" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I84" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" s="1">
         <f>IF(I84&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K84" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B85" s="1">
         <v>1</v>
@@ -3549,94 +3549,94 @@
         <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E85" s="3">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="F85" s="3">
         <f>LOG(E85)</f>
-        <v>4.4771212547196626</v>
+        <v>4.6812412373755876</v>
       </c>
       <c r="G85" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H85">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" s="1">
         <f>IF(I85&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K85" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
       <c r="D86" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E86" s="3">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="F86" s="3">
         <f>LOG(E86)</f>
-        <v>4.4623979978989565</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G86" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
       </c>
       <c r="J86" s="1">
         <f>IF(I86&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87">
         <v>40</v>
       </c>
       <c r="E87" s="3">
-        <v>28000</v>
+        <v>37700</v>
       </c>
       <c r="F87" s="3">
         <f>LOG(E87)</f>
-        <v>4.4471580313422194</v>
+        <v>4.5763413502057926</v>
       </c>
       <c r="G87" s="1">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I87" s="1">
         <v>1</v>
@@ -3646,34 +3646,34 @@
         <v>1</v>
       </c>
       <c r="K87" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E88" s="3">
-        <v>28000</v>
+        <v>26500</v>
       </c>
       <c r="F88" s="3">
         <f>LOG(E88)</f>
-        <v>4.4471580313422194</v>
+        <v>4.4232458739368079</v>
       </c>
       <c r="G88" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I88" s="1">
         <v>1</v>
@@ -3683,52 +3683,52 @@
         <v>1</v>
       </c>
       <c r="K88" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E89" s="3">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="F89" s="3">
         <f>LOG(E89)</f>
-        <v>4.4471580313422194</v>
+        <v>4.3222192947339195</v>
       </c>
       <c r="G89" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H89">
         <v>10</v>
       </c>
-      <c r="I89">
-        <v>0</v>
+      <c r="I89" s="1">
+        <v>1</v>
       </c>
       <c r="J89" s="1">
         <f>IF(I89&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -3737,54 +3737,54 @@
         <v>40</v>
       </c>
       <c r="E90" s="3">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="F90" s="3">
         <f>LOG(E90)</f>
-        <v>4.4313637641589869</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G90" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H90">
         <v>5</v>
       </c>
       <c r="I90" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" s="1">
         <f>IF(I90&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K90" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E91" s="3">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="F91" s="3">
         <f>LOG(E91)</f>
-        <v>4.4313637641589869</v>
+        <v>4.204119982655925</v>
       </c>
       <c r="G91" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H91">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -3794,34 +3794,34 @@
         <v>0</v>
       </c>
       <c r="K91" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
       <c r="C92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E92" s="3">
-        <v>26500</v>
+        <v>75400</v>
       </c>
       <c r="F92" s="3">
         <f>LOG(E92)</f>
-        <v>4.4232458739368079</v>
+        <v>4.8773713458697738</v>
       </c>
       <c r="G92" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H92">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
@@ -3831,52 +3831,52 @@
         <v>1</v>
       </c>
       <c r="K92" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B93" s="1">
         <v>1</v>
       </c>
       <c r="C93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E93" s="3">
-        <v>26500</v>
+        <v>47000</v>
       </c>
       <c r="F93" s="3">
         <f>LOG(E93)</f>
-        <v>4.4232458739368079</v>
+        <v>4.6720978579357171</v>
       </c>
       <c r="G93" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" s="1">
         <f>IF(I93&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K93" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -3885,32 +3885,32 @@
         <v>40</v>
       </c>
       <c r="E94" s="3">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="F94" s="3">
         <f>LOG(E94)</f>
-        <v>4.4149733479708182</v>
+        <v>4.653212513775344</v>
       </c>
       <c r="G94" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H94">
-        <v>11</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I94" s="1">
+        <v>2</v>
       </c>
       <c r="J94" s="1">
         <f>IF(I94&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B95" s="1">
         <v>1</v>
@@ -3922,17 +3922,17 @@
         <v>40</v>
       </c>
       <c r="E95" s="3">
-        <v>26000</v>
+        <v>43000</v>
       </c>
       <c r="F95" s="3">
         <f>LOG(E95)</f>
-        <v>4.4149733479708182</v>
+        <v>4.6334684555795862</v>
       </c>
       <c r="G95" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I95" s="1">
         <v>2</v>
@@ -3942,34 +3942,34 @@
         <v>1</v>
       </c>
       <c r="K95" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B96" s="1">
         <v>1</v>
       </c>
       <c r="C96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E96" s="3">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="F96" s="3">
         <f>LOG(E96)</f>
-        <v>4.4149733479708182</v>
+        <v>4.5563025007672868</v>
       </c>
       <c r="G96" s="1">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H96">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I96" s="1">
         <v>1</v>
@@ -3979,12 +3979,12 @@
         <v>1</v>
       </c>
       <c r="K96" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B97" s="1">
         <v>1</v>
@@ -3993,17 +3993,17 @@
         <v>0</v>
       </c>
       <c r="D97" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E97" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="F97" s="3">
         <f>LOG(E97)</f>
-        <v>4.3979400086720375</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G97" s="1">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H97">
         <v>5</v>
@@ -4016,12 +4016,12 @@
         <v>1</v>
       </c>
       <c r="K97" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
@@ -4033,17 +4033,17 @@
         <v>40</v>
       </c>
       <c r="E98" s="3">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="F98" s="3">
         <f>LOG(E98)</f>
-        <v>4.3979400086720375</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G98" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I98" s="1">
         <v>1</v>
@@ -4053,12 +4053,12 @@
         <v>1</v>
       </c>
       <c r="K98" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -4070,32 +4070,32 @@
         <v>40</v>
       </c>
       <c r="E99" s="3">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F99" s="3">
         <f>LOG(E99)</f>
-        <v>4.3979400086720375</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G99" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
       </c>
       <c r="J99" s="1">
         <f>IF(I99&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
@@ -4107,32 +4107,32 @@
         <v>40</v>
       </c>
       <c r="E100" s="3">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="F100" s="3">
         <f>LOG(E100)</f>
-        <v>4.3979400086720375</v>
+        <v>4.6989700043360187</v>
       </c>
       <c r="G100" s="1">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I100" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" s="1">
         <f>IF(I100&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K100" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B101" s="1">
         <v>1</v>
@@ -4144,32 +4144,32 @@
         <v>40</v>
       </c>
       <c r="E101" s="3">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F101" s="3">
         <f>LOG(E101)</f>
-        <v>4.3979400086720375</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G101" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>10</v>
       </c>
-      <c r="I101">
-        <v>0</v>
+      <c r="I101" s="1">
+        <v>3</v>
       </c>
       <c r="J101" s="1">
         <f>IF(I101&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
@@ -4181,24 +4181,24 @@
         <v>40</v>
       </c>
       <c r="E102" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="F102" s="3">
         <f>LOG(E102)</f>
-        <v>4.3979400086720375</v>
+        <v>4.4149733479708182</v>
       </c>
       <c r="G102" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H102">
-        <v>2</v>
-      </c>
-      <c r="I102" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
       </c>
       <c r="J102" s="1">
         <f>IF(I102&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" s="1">
         <v>14</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -4215,27 +4215,27 @@
         <v>1</v>
       </c>
       <c r="D103" s="1">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E103" s="3">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="F103" s="3">
         <f>LOG(E103)</f>
-        <v>4.3979400086720375</v>
+        <v>4.653212513775344</v>
       </c>
       <c r="G103" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
       </c>
       <c r="J103" s="1">
         <f>IF(I103&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="1">
         <v>14</v>
@@ -4243,10 +4243,10 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -4255,32 +4255,32 @@
         <v>40</v>
       </c>
       <c r="E104" s="3">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F104" s="3">
         <f>LOG(E104)</f>
-        <v>4.3979400086720375</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G104" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H104">
-        <v>2</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I104" s="1">
+        <v>2</v>
       </c>
       <c r="J104" s="1">
         <f>IF(I104&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B105" s="1">
         <v>0</v>
@@ -4292,35 +4292,35 @@
         <v>40</v>
       </c>
       <c r="E105" s="3">
-        <v>25000</v>
+        <v>16400</v>
       </c>
       <c r="F105" s="3">
         <f>LOG(E105)</f>
-        <v>4.3979400086720375</v>
+        <v>4.214843848047698</v>
       </c>
       <c r="G105" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I105" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" s="1">
         <f>IF(I105&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K105" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -4329,32 +4329,32 @@
         <v>40</v>
       </c>
       <c r="E106" s="3">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F106" s="3">
         <f>LOG(E106)</f>
-        <v>4.3979400086720375</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G106" s="1">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H106">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" s="1">
         <f>IF(I106&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K106" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4366,32 +4366,32 @@
         <v>40</v>
       </c>
       <c r="E107" s="3">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="F107" s="3">
         <f>LOG(E107)</f>
-        <v>4.3979400086720375</v>
+        <v>4.4313637641589869</v>
       </c>
       <c r="G107" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H107">
-        <v>10</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I107" s="1">
+        <v>2</v>
       </c>
       <c r="J107" s="1">
         <f>IF(I107&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B108" s="1">
         <v>1</v>
@@ -4400,35 +4400,35 @@
         <v>0</v>
       </c>
       <c r="D108" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E108" s="3">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="F108" s="3">
         <f>LOG(E108)</f>
-        <v>4.3979400086720375</v>
+        <v>4.568201724066995</v>
       </c>
       <c r="G108" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H108">
         <v>10</v>
       </c>
       <c r="I108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" s="1">
         <f>IF(I108&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K108" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E109" s="3">
         <v>25000</v>
@@ -4447,25 +4447,25 @@
         <v>4.3979400086720375</v>
       </c>
       <c r="G109" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H109">
-        <v>2</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1</v>
       </c>
       <c r="J109" s="1">
         <f>IF(I109&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B110" s="1">
         <v>1</v>
@@ -4477,32 +4477,32 @@
         <v>40</v>
       </c>
       <c r="E110" s="3">
-        <v>24250</v>
+        <v>40000</v>
       </c>
       <c r="F110" s="3">
         <f>LOG(E110)</f>
-        <v>4.3847117429382827</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G110" s="1">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I110" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" s="1">
         <f>IF(I110&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K110" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B111" s="1">
         <v>1</v>
@@ -4511,57 +4511,57 @@
         <v>1</v>
       </c>
       <c r="D111" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E111" s="3">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="F111" s="3">
         <f>LOG(E111)</f>
-        <v>4.3802112417116064</v>
+        <v>4.1760912590556813</v>
       </c>
       <c r="G111" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H111">
-        <v>2</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
       </c>
       <c r="J111" s="1">
         <f>IF(I111&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
       </c>
       <c r="D112" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E112" s="3">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="F112" s="3">
         <f>LOG(E112)</f>
-        <v>4.3424226808222066</v>
+        <v>4.4471580313422194</v>
       </c>
       <c r="G112" s="1">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H112">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I112" s="1">
         <v>1</v>
@@ -4571,15 +4571,15 @@
         <v>1</v>
       </c>
       <c r="K112" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
@@ -4588,106 +4588,106 @@
         <v>40</v>
       </c>
       <c r="E113" s="3">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="F113" s="3">
         <f>LOG(E113)</f>
-        <v>4.3424226808222066</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G113" s="1">
+        <v>32</v>
+      </c>
+      <c r="H113">
         <v>10</v>
       </c>
-      <c r="H113">
-        <v>9</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
+      <c r="I113" s="1">
+        <v>2</v>
       </c>
       <c r="J113" s="1">
         <f>IF(I113&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E114" s="3">
-        <v>21000</v>
+        <v>37000</v>
       </c>
       <c r="F114" s="3">
         <f>LOG(E114)</f>
-        <v>4.3222192947339195</v>
+        <v>4.568201724066995</v>
       </c>
       <c r="G114" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H114">
-        <v>10</v>
-      </c>
-      <c r="I114" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
       </c>
       <c r="J114" s="1">
         <f>IF(I114&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>40</v>
       </c>
       <c r="E115" s="3">
-        <v>20400</v>
+        <v>35000</v>
       </c>
       <c r="F115" s="3">
         <f>LOG(E115)</f>
-        <v>4.3096301674258983</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G115" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I115" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" s="1">
         <f>IF(I115&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K115" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B116" s="1">
         <v>1</v>
@@ -4696,17 +4696,17 @@
         <v>1</v>
       </c>
       <c r="D116" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E116" s="3">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F116" s="3">
         <f>LOG(E116)</f>
-        <v>4.3010299956639813</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G116" s="1">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>6</v>
@@ -4719,20 +4719,20 @@
         <v>1</v>
       </c>
       <c r="K116" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117">
         <v>40</v>
       </c>
       <c r="E117" s="3">
@@ -4743,10 +4743,10 @@
         <v>4.3010299956639813</v>
       </c>
       <c r="G117" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
@@ -4756,31 +4756,31 @@
         <v>1</v>
       </c>
       <c r="K117" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118">
         <v>40</v>
       </c>
       <c r="E118" s="3">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="F118" s="3">
         <f>LOG(E118)</f>
-        <v>4.3010299956639813</v>
+        <v>4.1461280356782382</v>
       </c>
       <c r="G118" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H118">
         <v>6</v>
@@ -4793,34 +4793,34 @@
         <v>1</v>
       </c>
       <c r="K118" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
       </c>
       <c r="C119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" s="1">
         <v>40</v>
       </c>
       <c r="E119" s="3">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="F119" s="3">
         <f>LOG(E119)</f>
-        <v>4.3010299956639813</v>
+        <v>4.8129133566428557</v>
       </c>
       <c r="G119" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4830,34 +4830,34 @@
         <v>0</v>
       </c>
       <c r="K119" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B120" s="1">
         <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120" s="1">
         <v>40</v>
       </c>
       <c r="E120" s="3">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F120" s="3">
         <f>LOG(E120)</f>
-        <v>4.3010299956639813</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G120" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H120">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I120" s="1">
         <v>2</v>
@@ -4867,37 +4867,37 @@
         <v>1</v>
       </c>
       <c r="K120" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E121" s="3">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="F121" s="3">
         <f>LOG(E121)</f>
-        <v>4.3010299956639813</v>
+        <v>4.6334684555795862</v>
       </c>
       <c r="G121" s="1">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I121" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" s="1">
         <f>IF(I121&gt;0, 1,0)</f>
@@ -4909,29 +4909,29 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B122" s="1">
         <v>1</v>
       </c>
       <c r="C122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="1">
         <v>40</v>
       </c>
       <c r="E122" s="3">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="F122" s="3">
         <f>LOG(E122)</f>
-        <v>4.3010299956639813</v>
+        <v>4.5797835966168101</v>
       </c>
       <c r="G122" s="1">
         <v>12</v>
       </c>
       <c r="H122">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I122" s="1">
         <v>1</v>
@@ -4941,37 +4941,37 @@
         <v>1</v>
       </c>
       <c r="K122" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" s="1">
         <v>48</v>
       </c>
       <c r="E123" s="3">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="F123" s="3">
         <f>LOG(E123)</f>
-        <v>4.3010299956639813</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G123" s="1">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I123" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" s="1">
         <f>IF(I123&gt;0, 1,0)</f>
@@ -4983,26 +4983,26 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" s="1">
         <v>40</v>
       </c>
       <c r="E124" s="3">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="F124" s="3">
         <f>LOG(E124)</f>
-        <v>4.3010299956639813</v>
+        <v>4.3424226808222066</v>
       </c>
       <c r="G124" s="1">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H124">
         <v>10</v>
@@ -5015,12 +5015,12 @@
         <v>1</v>
       </c>
       <c r="K124" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B125" s="1">
         <v>0</v>
@@ -5029,35 +5029,35 @@
         <v>1</v>
       </c>
       <c r="D125" s="1">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E125" s="3">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="F125" s="3">
         <f>LOG(E125)</f>
-        <v>4.3010299956639813</v>
+        <v>4.204119982655925</v>
       </c>
       <c r="G125" s="1">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>5</v>
       </c>
       <c r="I125" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" s="1">
         <f>IF(I125&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K125" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B126" s="1">
         <v>1</v>
@@ -5066,17 +5066,17 @@
         <v>1</v>
       </c>
       <c r="D126" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E126" s="3">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="F126" s="3">
         <f>LOG(E126)</f>
-        <v>4.3010299956639813</v>
+        <v>4.1760912590556813</v>
       </c>
       <c r="G126" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>10</v>
@@ -5089,12 +5089,12 @@
         <v>1</v>
       </c>
       <c r="K126" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B127" s="1">
         <v>1</v>
@@ -5102,21 +5102,21 @@
       <c r="C127" s="1">
         <v>1</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>40</v>
       </c>
       <c r="E127" s="3">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="F127" s="3">
         <f>LOG(E127)</f>
-        <v>4.3010299956639813</v>
+        <v>4.0791812460476251</v>
       </c>
       <c r="G127" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I127" s="1">
         <v>1</v>
@@ -5126,89 +5126,89 @@
         <v>1</v>
       </c>
       <c r="K127" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B128" s="1">
         <v>1</v>
       </c>
       <c r="C128" s="1">
-        <v>1</v>
-      </c>
-      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
         <v>40</v>
       </c>
       <c r="E128" s="3">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F128" s="3">
         <f>LOG(E128)</f>
-        <v>4.3010299956639813</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G128" s="1">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I128" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" s="1">
         <f>IF(I128&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K128" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
       </c>
       <c r="C129" s="1">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>48</v>
       </c>
       <c r="E129" s="3">
-        <v>19192</v>
+        <v>35000</v>
       </c>
       <c r="F129" s="3">
         <f>LOG(E129)</f>
-        <v>4.2831202349597746</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G129" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>10</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I129" s="1">
+        <v>2</v>
       </c>
       <c r="J129" s="1">
         <f>IF(I129&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -5217,27 +5217,27 @@
         <v>40</v>
       </c>
       <c r="E130" s="3">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="F130" s="3">
         <f>LOG(E130)</f>
-        <v>4.2787536009528289</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G130" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>2</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I130" s="1">
+        <v>1</v>
       </c>
       <c r="J130" s="1">
         <f>IF(I130&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
@@ -5279,81 +5279,81 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B132" s="1">
         <v>1</v>
       </c>
       <c r="C132" s="1">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="D132" s="1">
+        <v>60</v>
       </c>
       <c r="E132" s="3">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="F132" s="3">
         <f>LOG(E132)</f>
-        <v>4.2552725051033065</v>
+        <v>4.7781512503836439</v>
       </c>
       <c r="G132" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I132" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" s="1">
         <f>IF(I132&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K132" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E133" s="3">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="F133" s="3">
         <f>LOG(E133)</f>
-        <v>4.2304489213782741</v>
+        <v>4.4471580313422194</v>
       </c>
       <c r="G133" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H133">
         <v>6</v>
       </c>
       <c r="I133" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" s="1">
         <f>IF(I133&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K133" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B134" s="1">
         <v>1</v>
@@ -5361,95 +5361,95 @@
       <c r="C134" s="1">
         <v>0</v>
       </c>
-      <c r="D134">
-        <v>40</v>
+      <c r="D134" s="1">
+        <v>60</v>
       </c>
       <c r="E134" s="3">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="F134" s="3">
         <f>LOG(E134)</f>
-        <v>4.2304489213782741</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G134" s="1">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I134" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" s="1">
         <f>IF(I134&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K134" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" s="1">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E135" s="3">
-        <v>16400</v>
+        <v>10000</v>
       </c>
       <c r="F135" s="3">
         <f>LOG(E135)</f>
-        <v>4.214843848047698</v>
+        <v>4</v>
       </c>
       <c r="G135" s="1">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I135" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" s="1">
         <f>IF(I135&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K135" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
       </c>
       <c r="D136" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E136" s="3">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="F136" s="3">
         <f>LOG(E136)</f>
-        <v>4.204119982655925</v>
+        <v>4.4149733479708182</v>
       </c>
       <c r="G136" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I136" s="1">
         <v>2</v>
@@ -5459,52 +5459,52 @@
         <v>1</v>
       </c>
       <c r="K136" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E137" s="3">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="F137" s="3">
         <f>LOG(E137)</f>
-        <v>4.204119982655925</v>
+        <v>4.0606978403536118</v>
       </c>
       <c r="G137" s="1">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>2</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I137" s="1">
+        <v>1</v>
       </c>
       <c r="J137" s="1">
         <f>IF(I137&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" s="1">
         <v>0</v>
@@ -5513,51 +5513,51 @@
         <v>40</v>
       </c>
       <c r="E138" s="3">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="F138" s="3">
         <f>LOG(E138)</f>
-        <v>4.204119982655925</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G138" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H138">
         <v>2</v>
       </c>
-      <c r="I138">
-        <v>0</v>
+      <c r="I138" s="1">
+        <v>3</v>
       </c>
       <c r="J138" s="1">
         <f>IF(I138&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B139" s="1">
         <v>1</v>
       </c>
       <c r="C139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" s="1">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E139" s="3">
-        <v>15190</v>
+        <v>11000</v>
       </c>
       <c r="F139" s="3">
         <f>LOG(E139)</f>
-        <v>4.181557773862786</v>
+        <v>4.0413926851582254</v>
       </c>
       <c r="G139" s="1">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>10</v>
@@ -5570,86 +5570,86 @@
         <v>1</v>
       </c>
       <c r="K139" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B140" s="1">
         <v>1</v>
       </c>
       <c r="C140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" s="1">
         <v>40</v>
       </c>
       <c r="E140" s="3">
-        <v>15000</v>
+        <v>53500</v>
       </c>
       <c r="F140" s="3">
         <f>LOG(E140)</f>
-        <v>4.1760912590556813</v>
+        <v>4.7283537820212285</v>
       </c>
       <c r="G140" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H140">
         <v>10</v>
       </c>
       <c r="I140" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" s="1">
         <f>IF(I140&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K140" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
       </c>
       <c r="D141" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E141" s="3">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="F141" s="3">
         <f>LOG(E141)</f>
-        <v>4.1760912590556813</v>
+        <v>4.2304489213782741</v>
       </c>
       <c r="G141" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I141" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" s="1">
         <f>IF(I141&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K141" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -5658,35 +5658,35 @@
         <v>1</v>
       </c>
       <c r="D142" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E142" s="3">
-        <v>15000</v>
+        <v>73400</v>
       </c>
       <c r="F142" s="3">
         <f>LOG(E142)</f>
-        <v>4.1760912590556813</v>
+        <v>4.8656960599160701</v>
       </c>
       <c r="G142" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>6</v>
       </c>
-      <c r="I142">
-        <v>0</v>
+      <c r="I142" s="1">
+        <v>1</v>
       </c>
       <c r="J142" s="1">
         <f>IF(I142&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B143" s="1">
         <v>1</v>
@@ -5698,94 +5698,94 @@
         <v>40</v>
       </c>
       <c r="E143" s="3">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="F143" s="3">
         <f>LOG(E143)</f>
-        <v>4.1760912590556813</v>
+        <v>4.0211892990699383</v>
       </c>
       <c r="G143" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H143">
-        <v>2</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I143" s="1">
+        <v>1</v>
       </c>
       <c r="J143" s="1">
         <f>IF(I143&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
       </c>
       <c r="C144" s="1">
-        <v>1</v>
-      </c>
-      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1">
         <v>40</v>
       </c>
       <c r="E144" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="F144" s="3">
         <f>LOG(E144)</f>
-        <v>4.1760912590556813</v>
+        <v>4.1613680022349753</v>
       </c>
       <c r="G144" s="1">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" s="1">
         <f>IF(I144&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K144" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" s="1">
         <v>0</v>
       </c>
       <c r="D145" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E145" s="3">
-        <v>14500</v>
+        <v>26000</v>
       </c>
       <c r="F145" s="3">
         <f>LOG(E145)</f>
-        <v>4.1613680022349753</v>
+        <v>4.4149733479708182</v>
       </c>
       <c r="G145" s="1">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I145" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" s="1">
         <f>IF(I145&gt;0, 1,0)</f>
@@ -5797,44 +5797,44 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" s="1">
-        <v>1</v>
-      </c>
-      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1">
         <v>40</v>
       </c>
       <c r="E146" s="3">
-        <v>14000</v>
+        <v>24250</v>
       </c>
       <c r="F146" s="3">
         <f>LOG(E146)</f>
-        <v>4.1461280356782382</v>
+        <v>4.3847117429382827</v>
       </c>
       <c r="G146" s="1">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H146">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I146" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" s="1">
         <f>IF(I146&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K146" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B147" s="1">
         <v>1</v>
@@ -5843,35 +5843,35 @@
         <v>1</v>
       </c>
       <c r="D147" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E147" s="3">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="F147" s="3">
         <f>LOG(E147)</f>
-        <v>4.0791812460476251</v>
+        <v>4.5051499783199063</v>
       </c>
       <c r="G147" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H147">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I147" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" s="1">
         <f>IF(I147&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K147" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B148" s="1">
         <v>1</v>
@@ -5879,21 +5879,21 @@
       <c r="C148" s="1">
         <v>0</v>
       </c>
-      <c r="D148">
-        <v>40</v>
+      <c r="D148" s="1">
+        <v>48</v>
       </c>
       <c r="E148" s="3">
-        <v>11600</v>
+        <v>15190</v>
       </c>
       <c r="F148" s="3">
         <f>LOG(E148)</f>
-        <v>4.0644579892269181</v>
+        <v>4.181557773862786</v>
       </c>
       <c r="G148" s="1">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H148">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I148" s="1">
         <v>2</v>
@@ -5903,12 +5903,12 @@
         <v>1</v>
       </c>
       <c r="K148" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B149" s="1">
         <v>1</v>
@@ -5916,95 +5916,95 @@
       <c r="C149" s="1">
         <v>1</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149">
         <v>40</v>
       </c>
       <c r="E149" s="3">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="F149" s="3">
         <f>LOG(E149)</f>
-        <v>4.0606978403536118</v>
+        <v>4.2552725051033065</v>
       </c>
       <c r="G149" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H149">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I149" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" s="1">
         <f>IF(I149&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K149" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
       </c>
-      <c r="D150" s="1">
-        <v>15</v>
+      <c r="D150">
+        <v>40</v>
       </c>
       <c r="E150" s="3">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="F150" s="3">
         <f>LOG(E150)</f>
-        <v>4.0413926851582254</v>
+        <v>4</v>
       </c>
       <c r="G150" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>10</v>
       </c>
       <c r="I150" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" s="1">
         <f>IF(I150&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K150" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
       </c>
       <c r="D151" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E151" s="3">
-        <v>10500</v>
+        <v>51500</v>
       </c>
       <c r="F151" s="3">
         <f>LOG(E151)</f>
-        <v>4.0211892990699383</v>
+        <v>4.7118072290411908</v>
       </c>
       <c r="G151" s="1">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H151">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I151" s="1">
         <v>1</v>
@@ -6014,12 +6014,12 @@
         <v>1</v>
       </c>
       <c r="K151" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B152" s="1">
         <v>1</v>
@@ -6027,21 +6027,21 @@
       <c r="C152" s="1">
         <v>0</v>
       </c>
-      <c r="D152" s="1">
-        <v>96</v>
+      <c r="D152">
+        <v>40</v>
       </c>
       <c r="E152" s="3">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="F152" s="3">
         <f>LOG(E152)</f>
-        <v>4</v>
+        <v>4.2304489213782741</v>
       </c>
       <c r="G152" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H152">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I152" s="1">
         <v>1</v>
@@ -6051,12 +6051,12 @@
         <v>1</v>
       </c>
       <c r="K152" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B153" s="1">
         <v>0</v>
@@ -6064,73 +6064,73 @@
       <c r="C153" s="1">
         <v>1</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153">
         <v>40</v>
       </c>
       <c r="E153" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F153" s="3">
         <f>LOG(E153)</f>
-        <v>4</v>
+        <v>4.1760912590556813</v>
       </c>
       <c r="G153" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I153" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J153" s="1">
         <f>IF(I153&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K153" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" s="1">
-        <v>0</v>
-      </c>
-      <c r="D154" s="1">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>40</v>
       </c>
       <c r="E154" s="3">
-        <v>10000</v>
+        <v>19192</v>
       </c>
       <c r="F154" s="3">
         <f>LOG(E154)</f>
-        <v>4</v>
+        <v>4.2831202349597746</v>
       </c>
       <c r="G154" s="1">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="H154">
         <v>10</v>
       </c>
-      <c r="I154" s="1">
-        <v>3</v>
+      <c r="I154">
+        <v>0</v>
       </c>
       <c r="J154" s="1">
         <f>IF(I154&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B155" s="1">
         <v>0</v>
@@ -6138,7 +6138,7 @@
       <c r="C155" s="1">
         <v>1</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="1">
         <v>40</v>
       </c>
       <c r="E155" s="3">
@@ -6149,501 +6149,20 @@
         <v>4</v>
       </c>
       <c r="G155" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H155">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I155" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" s="1">
         <f>IF(I155&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K155" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
-        <v>20</v>
-      </c>
-      <c r="B156" s="1">
-        <v>0</v>
-      </c>
-      <c r="C156" s="1">
-        <v>1</v>
-      </c>
-      <c r="D156">
-        <v>40</v>
-      </c>
-      <c r="E156" s="3">
-        <v>9300</v>
-      </c>
-      <c r="F156" s="3">
-        <f>LOG(E156)</f>
-        <v>3.9684829485539352</v>
-      </c>
-      <c r="G156" s="1">
-        <v>1</v>
-      </c>
-      <c r="H156">
-        <v>6</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156" s="1">
-        <f>IF(I156&gt;0, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K156" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
-        <v>55</v>
-      </c>
-      <c r="B157" s="1">
-        <v>1</v>
-      </c>
-      <c r="C157" s="1">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1">
-        <v>30</v>
-      </c>
-      <c r="E157" s="3">
-        <v>9000</v>
-      </c>
-      <c r="F157" s="3">
-        <f>LOG(E157)</f>
-        <v>3.9542425094393248</v>
-      </c>
-      <c r="G157" s="1">
-        <v>36</v>
-      </c>
-      <c r="H157">
-        <v>2</v>
-      </c>
-      <c r="I157" s="1">
-        <v>2</v>
-      </c>
-      <c r="J157" s="1">
-        <f>IF(I157&gt;0, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K157" s="1">
         <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
-        <v>61</v>
-      </c>
-      <c r="B158" s="1">
-        <v>0</v>
-      </c>
-      <c r="C158" s="1">
-        <v>0</v>
-      </c>
-      <c r="D158" s="1">
-        <v>39</v>
-      </c>
-      <c r="E158" s="3">
-        <v>8800</v>
-      </c>
-      <c r="F158" s="3">
-        <f>LOG(E158)</f>
-        <v>3.9444826721501687</v>
-      </c>
-      <c r="G158" s="1">
-        <v>21</v>
-      </c>
-      <c r="H158">
-        <v>10</v>
-      </c>
-      <c r="I158" s="1">
-        <v>1</v>
-      </c>
-      <c r="J158" s="1">
-        <f>IF(I158&gt;0, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K158" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <v>58</v>
-      </c>
-      <c r="B159" s="1">
-        <v>0</v>
-      </c>
-      <c r="C159" s="1">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1">
-        <v>40</v>
-      </c>
-      <c r="E159" s="3">
-        <v>7700</v>
-      </c>
-      <c r="F159" s="3">
-        <f>LOG(E159)</f>
-        <v>3.8864907251724818</v>
-      </c>
-      <c r="G159" s="1">
-        <v>41</v>
-      </c>
-      <c r="H159">
-        <v>6</v>
-      </c>
-      <c r="I159" s="1">
-        <v>2</v>
-      </c>
-      <c r="J159" s="1">
-        <f>IF(I159&gt;0, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K159" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>17</v>
-      </c>
-      <c r="B160" s="1">
-        <v>0</v>
-      </c>
-      <c r="C160" s="1">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>40</v>
-      </c>
-      <c r="E160" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F160" s="3">
-        <f>LOG(E160)</f>
-        <v>3.8750612633917001</v>
-      </c>
-      <c r="G160" s="1">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160" s="1">
-        <f>IF(I160&gt;0, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K160" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
-        <v>63</v>
-      </c>
-      <c r="B161" s="1">
-        <v>1</v>
-      </c>
-      <c r="C161" s="1">
-        <v>0</v>
-      </c>
-      <c r="D161" s="1">
-        <v>39</v>
-      </c>
-      <c r="E161" s="3">
-        <v>7400</v>
-      </c>
-      <c r="F161" s="3">
-        <f>LOG(E161)</f>
-        <v>3.8692317197309762</v>
-      </c>
-      <c r="G161" s="1">
-        <v>18</v>
-      </c>
-      <c r="H161">
-        <v>10</v>
-      </c>
-      <c r="I161" s="1">
-        <v>1</v>
-      </c>
-      <c r="J161" s="1">
-        <f>IF(I161&gt;0, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K161" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
-        <v>54</v>
-      </c>
-      <c r="B162" s="1">
-        <v>1</v>
-      </c>
-      <c r="C162" s="1">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1">
-        <v>16</v>
-      </c>
-      <c r="E162" s="3">
-        <v>7000</v>
-      </c>
-      <c r="F162" s="3">
-        <f>LOG(E162)</f>
-        <v>3.8450980400142569</v>
-      </c>
-      <c r="G162" s="1">
-        <v>25</v>
-      </c>
-      <c r="H162">
-        <v>5</v>
-      </c>
-      <c r="I162" s="1">
-        <v>1</v>
-      </c>
-      <c r="J162" s="1">
-        <f>IF(I162&gt;0, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K162" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
-        <v>23</v>
-      </c>
-      <c r="B163" s="1">
-        <v>1</v>
-      </c>
-      <c r="C163" s="1">
-        <v>1</v>
-      </c>
-      <c r="D163">
-        <v>40</v>
-      </c>
-      <c r="E163" s="3">
-        <v>7000</v>
-      </c>
-      <c r="F163" s="3">
-        <f>LOG(E163)</f>
-        <v>3.8450980400142569</v>
-      </c>
-      <c r="G163" s="1">
-        <v>1</v>
-      </c>
-      <c r="H163">
-        <v>2</v>
-      </c>
-      <c r="I163" s="1">
-        <v>1</v>
-      </c>
-      <c r="J163" s="1">
-        <f>IF(I163&gt;0, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K163" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
-        <v>20</v>
-      </c>
-      <c r="B164" s="1">
-        <v>0</v>
-      </c>
-      <c r="C164" s="1">
-        <v>1</v>
-      </c>
-      <c r="D164">
-        <v>40</v>
-      </c>
-      <c r="E164" s="3">
-        <v>6400</v>
-      </c>
-      <c r="F164" s="3">
-        <f>LOG(E164)</f>
-        <v>3.8061799739838871</v>
-      </c>
-      <c r="G164" s="1">
-        <v>1</v>
-      </c>
-      <c r="H164">
-        <v>2</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164" s="1">
-        <f>IF(I164&gt;0, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K164" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
-        <v>56</v>
-      </c>
-      <c r="B165" s="1">
-        <v>1</v>
-      </c>
-      <c r="C165" s="1">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1">
-        <v>40</v>
-      </c>
-      <c r="E165" s="3">
-        <v>6278</v>
-      </c>
-      <c r="F165" s="3">
-        <f>LOG(E165)</f>
-        <v>3.7978213113640238</v>
-      </c>
-      <c r="G165" s="1">
-        <v>37</v>
-      </c>
-      <c r="H165">
-        <v>5</v>
-      </c>
-      <c r="I165" s="1">
-        <v>2</v>
-      </c>
-      <c r="J165" s="1">
-        <f>IF(I165&gt;0, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K165" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
-        <v>44</v>
-      </c>
-      <c r="B166" s="1">
-        <v>0</v>
-      </c>
-      <c r="C166" s="1">
-        <v>0</v>
-      </c>
-      <c r="D166" s="1">
-        <v>40</v>
-      </c>
-      <c r="E166" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F166" s="3">
-        <f>LOG(E166)</f>
-        <v>3.7781512503836434</v>
-      </c>
-      <c r="G166" s="1">
-        <v>10</v>
-      </c>
-      <c r="H166">
-        <v>3</v>
-      </c>
-      <c r="I166" s="1">
-        <v>2</v>
-      </c>
-      <c r="J166" s="1">
-        <f>IF(I166&gt;0, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K166" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
-        <v>24</v>
-      </c>
-      <c r="B167" s="1">
-        <v>1</v>
-      </c>
-      <c r="C167" s="1">
-        <v>1</v>
-      </c>
-      <c r="D167">
-        <v>40</v>
-      </c>
-      <c r="E167" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F167" s="3">
-        <f>LOG(E167)</f>
-        <v>3.7781512503836434</v>
-      </c>
-      <c r="G167" s="1">
-        <v>6</v>
-      </c>
-      <c r="H167">
-        <v>12</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167" s="1">
-        <f>IF(I167&gt;0, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K167" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
-        <v>23</v>
-      </c>
-      <c r="B168" s="1">
-        <v>0</v>
-      </c>
-      <c r="C168" s="1">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>40</v>
-      </c>
-      <c r="E168" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F168" s="3">
-        <f>LOG(E168)</f>
-        <v>3.7781512503836434</v>
-      </c>
-      <c r="G168" s="1">
-        <v>1</v>
-      </c>
-      <c r="H168">
-        <v>6</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168" s="1">
-        <f>IF(I168&gt;0, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K168" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
@@ -7822,8 +7341,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AG301" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG301">
-      <sortCondition descending="1" ref="E1:E301"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K301">
+      <sortCondition ref="A1:A301"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\GitHub\econom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14541618-E3AD-4D49-9C26-F3EE88D0D960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B93D45B-FF44-4C7D-903A-F2D11CA993FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,29 +543,29 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="F4" s="3">
         <f>LOG(E4)</f>
-        <v>4.3979400086720375</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -575,34 +575,34 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
       </c>
       <c r="E5" s="3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F5" s="3">
         <f>LOG(E5)</f>
-        <v>4.3010299956639813</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -617,29 +617,29 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
       </c>
       <c r="E6" s="3">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="F6" s="3">
         <f>LOG(E6)</f>
-        <v>4.1760912590556813</v>
+        <v>4.7781512503836439</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -649,12 +649,12 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -666,17 +666,17 @@
         <v>40</v>
       </c>
       <c r="E7" s="3">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F7" s="3">
         <f>LOG(E7)</f>
-        <v>4.6020599913279625</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,34 +686,34 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>40</v>
       </c>
       <c r="E8" s="3">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="F8" s="3">
         <f>LOG(E8)</f>
-        <v>4.5440680443502757</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -723,34 +723,34 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>40</v>
       </c>
       <c r="E9" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="F9" s="3">
         <f>LOG(E9)</f>
-        <v>4.3979400086720375</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -774,20 +774,20 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="F10" s="3">
         <f>LOG(E10)</f>
-        <v>4.4771212547196626</v>
+        <v>4.5051499783199063</v>
       </c>
       <c r="G10" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -797,68 +797,68 @@
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="F11" s="3">
         <f>LOG(E11)</f>
-        <v>4.4313637641589869</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <f>IF(I11&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
-        <v>60000</v>
+        <v>16000</v>
       </c>
       <c r="F12" s="3">
         <f>LOG(E12)</f>
-        <v>4.7781512503836439</v>
+        <v>4.204119982655925</v>
       </c>
       <c r="G12" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>40</v>
       </c>
       <c r="E13" s="3">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="F13" s="3">
         <f>LOG(E13)</f>
-        <v>4.3979400086720375</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -913,29 +913,29 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>40</v>
       </c>
       <c r="E14" s="3">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="F14" s="3">
         <f>LOG(E14)</f>
-        <v>4.653212513775344</v>
+        <v>4.7781512503836439</v>
       </c>
       <c r="G14" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -962,17 +962,17 @@
         <v>40</v>
       </c>
       <c r="E15" s="3">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="F15" s="3">
         <f>LOG(E15)</f>
-        <v>4.4771212547196626</v>
+        <v>4.6434526764861879</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="F16" s="3">
         <f>LOG(E16)</f>
-        <v>4.4471580313422194</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G16" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1024,29 +1024,29 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="F17" s="3">
         <f>LOG(E17)</f>
-        <v>4.3802112417116064</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1056,15 +1056,15 @@
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1073,17 +1073,17 @@
         <v>40</v>
       </c>
       <c r="E18" s="3">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F18" s="3">
         <f>LOG(E18)</f>
-        <v>4.6020599913279625</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G18" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1093,15 +1093,15 @@
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>4.6020599913279625</v>
       </c>
       <c r="G19" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1130,49 +1130,49 @@
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3">
-        <v>32000</v>
+        <v>55000</v>
       </c>
       <c r="F20" s="3">
         <f>LOG(E20)</f>
-        <v>4.5051499783199063</v>
+        <v>4.7403626894942441</v>
       </c>
       <c r="G20" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
       </c>
       <c r="J20" s="1">
         <f>IF(I20&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3">
         <v>30000</v>
@@ -1191,10 +1191,10 @@
         <v>4.4771212547196626</v>
       </c>
       <c r="G21" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1204,71 +1204,71 @@
         <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
       </c>
       <c r="E22" s="3">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="F22" s="3">
         <f>LOG(E22)</f>
-        <v>4.2787536009528289</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
       </c>
       <c r="J22" s="1">
         <f>IF(I22&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E23" s="3">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="F23" s="3">
         <f>LOG(E23)</f>
-        <v>4.204119982655925</v>
+        <v>4.653212513775344</v>
       </c>
       <c r="G23" s="1">
         <v>3</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1278,49 +1278,49 @@
         <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>40</v>
       </c>
       <c r="E24" s="3">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="F24" s="3">
         <f>LOG(E24)</f>
-        <v>4.1760912590556813</v>
+        <v>4.7403626894942441</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
       </c>
       <c r="J24" s="1">
         <f>IF(I24&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -1329,27 +1329,27 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E25" s="3">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="F25" s="3">
         <f>LOG(E25)</f>
-        <v>4.5440680443502757</v>
+        <v>4.6627578316815743</v>
       </c>
       <c r="G25" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
       </c>
       <c r="J25" s="1">
         <f>IF(I25&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
         <v>14</v>
@@ -1357,66 +1357,66 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>48</v>
       </c>
       <c r="E26" s="3">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F26" s="3">
         <f>LOG(E26)</f>
-        <v>4.4771212547196626</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G26" s="1">
         <v>8</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" s="1">
         <f>IF(I26&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E27" s="3">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="F27" s="3">
         <f>LOG(E27)</f>
-        <v>4.4623979978989565</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G27" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1426,34 +1426,34 @@
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>40</v>
       </c>
       <c r="E28" s="3">
-        <v>20400</v>
+        <v>11600</v>
       </c>
       <c r="F28" s="3">
         <f>LOG(E28)</f>
-        <v>4.3096301674258983</v>
+        <v>4.0644579892269181</v>
       </c>
       <c r="G28" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -1480,32 +1480,32 @@
         <v>40</v>
       </c>
       <c r="E29" s="3">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="F29" s="3">
         <f>LOG(E29)</f>
-        <v>4.7781512503836439</v>
+        <v>4.653212513775344</v>
       </c>
       <c r="G29" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
       </c>
       <c r="J29" s="1">
         <f>IF(I29&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -1514,20 +1514,20 @@
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E30" s="3">
-        <v>44000</v>
+        <v>35000</v>
       </c>
       <c r="F30" s="3">
         <f>LOG(E30)</f>
-        <v>4.6434526764861879</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G30" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1537,12 +1537,12 @@
         <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -1551,17 +1551,17 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E31" s="3">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F31" s="3">
         <f>LOG(E31)</f>
-        <v>4.6020599913279625</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G31" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -1574,12 +1574,12 @@
         <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -1588,57 +1588,57 @@
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E32" s="3">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="F32" s="3">
         <f>LOG(E32)</f>
-        <v>4.5440680443502757</v>
+        <v>4.8750612633917001</v>
       </c>
       <c r="G32" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
       </c>
       <c r="J32" s="1">
         <f>IF(I32&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E33" s="3">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="F33" s="3">
         <f>LOG(E33)</f>
-        <v>4.5440680443502757</v>
+        <v>4.6627578316815743</v>
       </c>
       <c r="G33" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1653,66 +1653,66 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E34" s="3">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="F34" s="3">
         <f>LOG(E34)</f>
-        <v>4.4771212547196626</v>
+        <v>4.568201724066995</v>
       </c>
       <c r="G34" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
       </c>
       <c r="J34" s="1">
         <f>IF(I34&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
         <v>40</v>
       </c>
       <c r="E35" s="3">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="F35" s="3">
         <f>LOG(E35)</f>
-        <v>4.6020599913279625</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G35" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -1722,12 +1722,12 @@
         <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -1736,20 +1736,20 @@
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E36" s="3">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F36" s="3">
         <f>LOG(E36)</f>
-        <v>4.6020599913279625</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G36" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1759,49 +1759,49 @@
         <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="F37" s="3">
         <f>LOG(E37)</f>
-        <v>4.5440680443502757</v>
+        <v>4</v>
       </c>
       <c r="G37" s="1">
+        <v>6</v>
+      </c>
+      <c r="H37">
         <v>10</v>
       </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
+      <c r="I37" s="1">
+        <v>3</v>
       </c>
       <c r="J37" s="1">
         <f>IF(I37&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -1810,35 +1810,35 @@
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E38" s="3">
-        <v>55000</v>
+        <v>40500</v>
       </c>
       <c r="F38" s="3">
         <f>LOG(E38)</f>
-        <v>4.7403626894942441</v>
+        <v>4.6074550232146683</v>
       </c>
       <c r="G38" s="1">
+        <v>19</v>
+      </c>
+      <c r="H38">
         <v>10</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
       <c r="I38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1">
         <f>IF(I38&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -1847,109 +1847,109 @@
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E39" s="3">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F39" s="3">
         <f>LOG(E39)</f>
-        <v>4.4771212547196626</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G39" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" s="1">
         <f>IF(I39&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E40" s="3">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="F40" s="3">
         <f>LOG(E40)</f>
-        <v>4.3424226808222066</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G40" s="1">
+        <v>16</v>
+      </c>
+      <c r="H40">
         <v>10</v>
       </c>
-      <c r="H40">
-        <v>9</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
+      <c r="I40" s="1">
+        <v>1</v>
       </c>
       <c r="J40" s="1">
         <f>IF(I40&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
         <v>40</v>
       </c>
       <c r="E41" s="3">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="F41" s="3">
         <f>LOG(E41)</f>
-        <v>4.3010299956639813</v>
+        <v>4.6989700043360187</v>
       </c>
       <c r="G41" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" s="1">
         <f>IF(I41&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -1961,69 +1961,69 @@
         <v>40</v>
       </c>
       <c r="E42" s="3">
-        <v>20000</v>
+        <v>48000</v>
       </c>
       <c r="F42" s="3">
         <f>LOG(E42)</f>
-        <v>4.3010299956639813</v>
+        <v>4.6812412373755876</v>
       </c>
       <c r="G42" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H42">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1">
         <f>IF(I42&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1">
         <v>40</v>
       </c>
       <c r="E43" s="3">
-        <v>50000</v>
+        <v>16000</v>
       </c>
       <c r="F43" s="3">
         <f>LOG(E43)</f>
-        <v>4.6989700043360187</v>
+        <v>4.204119982655925</v>
       </c>
       <c r="G43" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H43">
-        <v>5</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
       </c>
       <c r="J43" s="1">
         <f>IF(I43&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -2032,131 +2032,131 @@
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E44" s="3">
-        <v>45000</v>
+        <v>75400</v>
       </c>
       <c r="F44" s="3">
         <f>LOG(E44)</f>
-        <v>4.653212513775344</v>
+        <v>4.8773713458697738</v>
       </c>
       <c r="G44" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
       </c>
       <c r="J44" s="1">
         <f>IF(I44&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
         <v>40</v>
       </c>
       <c r="E45" s="3">
-        <v>40000</v>
+        <v>47000</v>
       </c>
       <c r="F45" s="3">
         <f>LOG(E45)</f>
-        <v>4.6020599913279625</v>
+        <v>4.6720978579357171</v>
       </c>
       <c r="G45" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H45">
         <v>10</v>
       </c>
       <c r="I45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="1">
         <f>IF(I45&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E46" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="F46" s="3">
         <f>LOG(E46)</f>
-        <v>4.3979400086720375</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G46" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" s="1">
         <f>IF(I46&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E47" s="3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F47" s="3">
         <f>LOG(E47)</f>
-        <v>4.3010299956639813</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G47" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H47">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
@@ -2166,34 +2166,34 @@
         <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1">
         <v>40</v>
       </c>
       <c r="E48" s="3">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="F48" s="3">
         <f>LOG(E48)</f>
-        <v>4.7781512503836439</v>
+        <v>4.6989700043360187</v>
       </c>
       <c r="G48" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H48">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -2203,12 +2203,12 @@
         <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -2220,14 +2220,14 @@
         <v>40</v>
       </c>
       <c r="E49" s="3">
-        <v>55000</v>
+        <v>37000</v>
       </c>
       <c r="F49" s="3">
         <f>LOG(E49)</f>
-        <v>4.7403626894942441</v>
+        <v>4.568201724066995</v>
       </c>
       <c r="G49" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H49">
         <v>10</v>
@@ -2240,12 +2240,12 @@
         <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -2254,72 +2254,72 @@
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E50" s="3">
-        <v>46000</v>
+        <v>40000</v>
       </c>
       <c r="F50" s="3">
         <f>LOG(E50)</f>
-        <v>4.6627578316815743</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G50" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1">
         <f>IF(I50&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E51" s="3">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="F51" s="3">
         <f>LOG(E51)</f>
-        <v>4.6020599913279625</v>
+        <v>4.4471580313422194</v>
       </c>
       <c r="G51" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" s="1">
         <f>IF(I51&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1">
         <v>1</v>
@@ -2328,20 +2328,20 @@
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E52" s="3">
-        <v>40000</v>
+        <v>37000</v>
       </c>
       <c r="F52" s="3">
         <f>LOG(E52)</f>
-        <v>4.6020599913279625</v>
+        <v>4.568201724066995</v>
       </c>
       <c r="G52" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2351,55 +2351,55 @@
         <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E53" s="3">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="F53" s="3">
         <f>LOG(E53)</f>
-        <v>4.4771212547196626</v>
+        <v>4.8129133566428557</v>
       </c>
       <c r="G53" s="1">
+        <v>25</v>
+      </c>
+      <c r="H53">
         <v>3</v>
       </c>
-      <c r="H53">
-        <v>2</v>
-      </c>
-      <c r="I53" s="1">
-        <v>2</v>
+      <c r="I53">
+        <v>0</v>
       </c>
       <c r="J53" s="1">
         <f>IF(I53&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
         <v>40</v>
@@ -2412,44 +2412,44 @@
         <v>4.3979400086720375</v>
       </c>
       <c r="G54" s="1">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>10</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2</v>
       </c>
       <c r="J54" s="1">
         <f>IF(I54&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E55" s="3">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="F55" s="3">
         <f>LOG(E55)</f>
-        <v>4.3010299956639813</v>
+        <v>4.6334684555795862</v>
       </c>
       <c r="G55" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>10</v>
@@ -2462,34 +2462,34 @@
         <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
-      <c r="D56">
-        <v>40</v>
+      <c r="D56" s="1">
+        <v>48</v>
       </c>
       <c r="E56" s="3">
-        <v>11600</v>
+        <v>35000</v>
       </c>
       <c r="F56" s="3">
         <f>LOG(E56)</f>
-        <v>4.0644579892269181</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G56" s="1">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I56" s="1">
         <v>2</v>
@@ -2499,49 +2499,49 @@
         <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1">
         <v>40</v>
       </c>
       <c r="E57" s="3">
-        <v>48000</v>
+        <v>22000</v>
       </c>
       <c r="F57" s="3">
         <f>LOG(E57)</f>
-        <v>4.6812412373755876</v>
+        <v>4.3424226808222066</v>
       </c>
       <c r="G57" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>11</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
       </c>
       <c r="J57" s="1">
         <f>IF(I57&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -2553,41 +2553,41 @@
         <v>40</v>
       </c>
       <c r="E58" s="3">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="F58" s="3">
         <f>LOG(E58)</f>
-        <v>4.653212513775344</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G58" s="1">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I58" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" s="1">
         <f>IF(I58&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E59" s="3">
         <v>35000</v>
@@ -2597,62 +2597,62 @@
         <v>4.5440680443502757</v>
       </c>
       <c r="G59" s="1">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <v>6</v>
       </c>
-      <c r="I59">
-        <v>0</v>
+      <c r="I59" s="1">
+        <v>2</v>
       </c>
       <c r="J59" s="1">
         <f>IF(I59&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
       <c r="C60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1">
         <v>40</v>
       </c>
       <c r="E60" s="3">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="F60" s="3">
         <f>LOG(E60)</f>
-        <v>4.5185139398778871</v>
+        <v>4.2552725051033065</v>
       </c>
       <c r="G60" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" s="1">
         <f>IF(I60&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -2661,57 +2661,57 @@
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E61" s="3">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="F61" s="3">
         <f>LOG(E61)</f>
-        <v>4.4771212547196626</v>
+        <v>4.7781512503836439</v>
       </c>
       <c r="G61" s="1">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
       </c>
       <c r="J61" s="1">
         <f>IF(I61&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
         <v>40</v>
       </c>
       <c r="E62" s="3">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="F62" s="3">
         <f>LOG(E62)</f>
-        <v>4.3979400086720375</v>
+        <v>4.4471580313422194</v>
       </c>
       <c r="G62" s="1">
+        <v>35</v>
+      </c>
+      <c r="H62">
         <v>6</v>
-      </c>
-      <c r="H62">
-        <v>2</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>
@@ -2721,49 +2721,49 @@
         <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
       </c>
       <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>60</v>
       </c>
       <c r="E63" s="3">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F63" s="3">
         <f>LOG(E63)</f>
-        <v>4.3010299956639813</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G63" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" s="1">
         <f>IF(I63&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -2772,20 +2772,20 @@
         <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E64" s="3">
-        <v>75000</v>
+        <v>10000</v>
       </c>
       <c r="F64" s="3">
         <f>LOG(E64)</f>
-        <v>4.8750612633917001</v>
+        <v>4</v>
       </c>
       <c r="G64" s="1">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I64" s="1">
         <v>1</v>
@@ -2795,108 +2795,108 @@
         <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
       </c>
       <c r="C65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E65" s="3">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="F65" s="3">
         <f>LOG(E65)</f>
-        <v>4.5797835966168101</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G65" s="1">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>10</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I65" s="1">
+        <v>3</v>
       </c>
       <c r="J65" s="1">
         <f>IF(I65&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E66" s="3">
-        <v>30000</v>
+        <v>53500</v>
       </c>
       <c r="F66" s="3">
         <f>LOG(E66)</f>
-        <v>4.4771212547196626</v>
+        <v>4.7283537820212285</v>
       </c>
       <c r="G66" s="1">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="H66">
-        <v>6</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2</v>
       </c>
       <c r="J66" s="1">
         <f>IF(I66&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E67" s="3">
-        <v>26500</v>
+        <v>14500</v>
       </c>
       <c r="F67" s="3">
         <f>LOG(E67)</f>
-        <v>4.4232458739368079</v>
+        <v>4.1613680022349753</v>
       </c>
       <c r="G67" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I67" s="1">
         <v>2</v>
@@ -2906,34 +2906,34 @@
         <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E68" s="3">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="F68" s="3">
         <f>LOG(E68)</f>
-        <v>4.3010299956639813</v>
+        <v>4.4149733479708182</v>
       </c>
       <c r="G68" s="1">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="H68">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="1">
         <v>1</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
@@ -2960,32 +2960,32 @@
         <v>40</v>
       </c>
       <c r="E69" s="3">
-        <v>46000</v>
+        <v>24250</v>
       </c>
       <c r="F69" s="3">
         <f>LOG(E69)</f>
-        <v>4.6627578316815743</v>
+        <v>4.3847117429382827</v>
       </c>
       <c r="G69" s="1">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H69">
-        <v>10</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2</v>
       </c>
       <c r="J69" s="1">
         <f>IF(I69&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
@@ -2994,35 +2994,35 @@
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E70" s="3">
-        <v>37000</v>
+        <v>15190</v>
       </c>
       <c r="F70" s="3">
         <f>LOG(E70)</f>
-        <v>4.568201724066995</v>
+        <v>4.181557773862786</v>
       </c>
       <c r="G70" s="1">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I70" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" s="1">
         <f>IF(I70&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
@@ -3030,21 +3030,21 @@
       <c r="C71" s="1">
         <v>0</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>40</v>
       </c>
       <c r="E71" s="3">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="F71" s="3">
         <f>LOG(E71)</f>
-        <v>4.5440680443502757</v>
+        <v>4.2304489213782741</v>
       </c>
       <c r="G71" s="1">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I71" s="1">
         <v>1</v>
@@ -3054,34 +3054,34 @@
         <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1">
         <v>48</v>
       </c>
       <c r="E72" s="3">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="F72" s="3">
         <f>LOG(E72)</f>
-        <v>4.4771212547196626</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G72" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3091,12 +3091,12 @@
         <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -3108,35 +3108,35 @@
         <v>40</v>
       </c>
       <c r="E73" s="3">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="F73" s="3">
         <f>LOG(E73)</f>
-        <v>4.6989700043360187</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G73" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H73">
-        <v>10</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
       </c>
       <c r="J73" s="1">
         <f>IF(I73&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -3145,17 +3145,17 @@
         <v>40</v>
       </c>
       <c r="E74" s="3">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="F74" s="3">
         <f>LOG(E74)</f>
-        <v>4.3979400086720375</v>
+        <v>4.1760912590556813</v>
       </c>
       <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>6</v>
-      </c>
-      <c r="H74">
-        <v>10</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3170,44 +3170,44 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E75" s="3">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="F75" s="3">
         <f>LOG(E75)</f>
-        <v>4</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G75" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>10</v>
-      </c>
-      <c r="I75" s="1">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
       </c>
       <c r="J75" s="1">
         <f>IF(I75&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -3216,109 +3216,109 @@
         <v>1</v>
       </c>
       <c r="D76" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E76" s="3">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F76" s="3">
         <f>LOG(E76)</f>
-        <v>4.3010299956639813</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G76" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>5</v>
-      </c>
-      <c r="I76" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
       </c>
       <c r="J76" s="1">
         <f>IF(I76&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E77" s="3">
-        <v>43000</v>
+        <v>27000</v>
       </c>
       <c r="F77" s="3">
         <f>LOG(E77)</f>
-        <v>4.6334684555795862</v>
+        <v>4.4313637641589869</v>
       </c>
       <c r="G77" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <v>5</v>
-      </c>
-      <c r="I77" s="1">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
       </c>
       <c r="J77" s="1">
         <f>IF(I77&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E78" s="3">
-        <v>40500</v>
+        <v>25000</v>
       </c>
       <c r="F78" s="3">
         <f>LOG(E78)</f>
-        <v>4.6074550232146683</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G78" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H78">
-        <v>10</v>
-      </c>
-      <c r="I78" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
       </c>
       <c r="J78" s="1">
         <f>IF(I78&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -3330,69 +3330,69 @@
         <v>40</v>
       </c>
       <c r="E79" s="3">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="F79" s="3">
         <f>LOG(E79)</f>
-        <v>4.6020599913279625</v>
+        <v>4.653212513775344</v>
       </c>
       <c r="G79" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H79">
-        <v>12</v>
-      </c>
-      <c r="I79" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
       </c>
       <c r="J79" s="1">
         <f>IF(I79&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E80" s="3">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="F80" s="3">
         <f>LOG(E80)</f>
-        <v>4.6020599913279625</v>
+        <v>4.4471580313422194</v>
       </c>
       <c r="G80" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H80">
-        <v>6</v>
-      </c>
-      <c r="I80" s="1">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
       </c>
       <c r="J80" s="1">
         <f>IF(I80&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
@@ -3401,72 +3401,72 @@
         <v>1</v>
       </c>
       <c r="D81" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E81" s="3">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="F81" s="3">
         <f>LOG(E81)</f>
-        <v>4.653212513775344</v>
+        <v>4.3802112417116064</v>
       </c>
       <c r="G81" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>10</v>
-      </c>
-      <c r="I81" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
       </c>
       <c r="J81" s="1">
         <f>IF(I81&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E82" s="3">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="F82" s="3">
         <f>LOG(E82)</f>
-        <v>4.6020599913279625</v>
+        <v>4.2787536009528289</v>
       </c>
       <c r="G82" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>10</v>
-      </c>
-      <c r="I82" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
       </c>
       <c r="J82" s="1">
         <f>IF(I82&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
@@ -3478,57 +3478,57 @@
         <v>40</v>
       </c>
       <c r="E83" s="3">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="F83" s="3">
         <f>LOG(E83)</f>
-        <v>4.3010299956639813</v>
+        <v>4.1760912590556813</v>
       </c>
       <c r="G83" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>6</v>
-      </c>
-      <c r="I83" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
       </c>
       <c r="J83" s="1">
         <f>IF(I83&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E84" s="3">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="F84" s="3">
         <f>LOG(E84)</f>
-        <v>4.6989700043360187</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G84" s="1">
         <v>8</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I84" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" s="1">
         <f>IF(I84&gt;0, 1,0)</f>
@@ -3540,44 +3540,44 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
         <v>40</v>
       </c>
       <c r="E85" s="3">
-        <v>48000</v>
+        <v>29000</v>
       </c>
       <c r="F85" s="3">
         <f>LOG(E85)</f>
-        <v>4.6812412373755876</v>
+        <v>4.4623979978989565</v>
       </c>
       <c r="G85" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H85">
-        <v>2</v>
-      </c>
-      <c r="I85" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
       </c>
       <c r="J85" s="1">
         <f>IF(I85&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
@@ -3585,76 +3585,76 @@
       <c r="C86" s="1">
         <v>1</v>
       </c>
-      <c r="D86" s="1">
-        <v>60</v>
+      <c r="D86">
+        <v>40</v>
       </c>
       <c r="E86" s="3">
-        <v>35000</v>
+        <v>20400</v>
       </c>
       <c r="F86" s="3">
         <f>LOG(E86)</f>
-        <v>4.5440680443502757</v>
+        <v>4.3096301674258983</v>
       </c>
       <c r="G86" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" s="1">
         <f>IF(I86&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K86" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
       </c>
-      <c r="D87">
-        <v>40</v>
+      <c r="D87" s="1">
+        <v>48</v>
       </c>
       <c r="E87" s="3">
-        <v>37700</v>
+        <v>35000</v>
       </c>
       <c r="F87" s="3">
         <f>LOG(E87)</f>
-        <v>4.5763413502057926</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G87" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
-      <c r="I87" s="1">
-        <v>1</v>
+      <c r="I87">
+        <v>0</v>
       </c>
       <c r="J87" s="1">
         <f>IF(I87&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -3663,17 +3663,17 @@
         <v>40</v>
       </c>
       <c r="E88" s="3">
-        <v>26500</v>
+        <v>40000</v>
       </c>
       <c r="F88" s="3">
         <f>LOG(E88)</f>
-        <v>4.4232458739368079</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G88" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I88" s="1">
         <v>1</v>
@@ -3683,49 +3683,49 @@
         <v>1</v>
       </c>
       <c r="K88" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E89" s="3">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="F89" s="3">
         <f>LOG(E89)</f>
-        <v>4.3222192947339195</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G89" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H89">
-        <v>10</v>
-      </c>
-      <c r="I89" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
       </c>
       <c r="J89" s="1">
         <f>IF(I89&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -3737,24 +3737,24 @@
         <v>40</v>
       </c>
       <c r="E90" s="3">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="F90" s="3">
         <f>LOG(E90)</f>
-        <v>4.3010299956639813</v>
+        <v>4.3424226808222066</v>
       </c>
       <c r="G90" s="1">
         <v>10</v>
       </c>
       <c r="H90">
-        <v>5</v>
-      </c>
-      <c r="I90" s="1">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
       </c>
       <c r="J90" s="1">
         <f>IF(I90&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="1">
         <v>14</v>
@@ -3762,66 +3762,66 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" s="1">
         <v>40</v>
       </c>
       <c r="E91" s="3">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="F91" s="3">
         <f>LOG(E91)</f>
-        <v>4.204119982655925</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G91" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
-      <c r="I91">
-        <v>0</v>
+      <c r="I91" s="1">
+        <v>3</v>
       </c>
       <c r="J91" s="1">
         <f>IF(I91&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E92" s="3">
-        <v>75400</v>
+        <v>50000</v>
       </c>
       <c r="F92" s="3">
         <f>LOG(E92)</f>
-        <v>4.8773713458697738</v>
+        <v>4.6989700043360187</v>
       </c>
       <c r="G92" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H92">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
@@ -3831,49 +3831,49 @@
         <v>1</v>
       </c>
       <c r="K92" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B93" s="1">
         <v>1</v>
       </c>
       <c r="C93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" s="1">
         <v>40</v>
       </c>
       <c r="E93" s="3">
-        <v>47000</v>
+        <v>40000</v>
       </c>
       <c r="F93" s="3">
         <f>LOG(E93)</f>
-        <v>4.6720978579357171</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G93" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H93">
         <v>10</v>
       </c>
       <c r="I93" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" s="1">
         <f>IF(I93&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K93" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -3885,20 +3885,20 @@
         <v>40</v>
       </c>
       <c r="E94" s="3">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="F94" s="3">
         <f>LOG(E94)</f>
-        <v>4.653212513775344</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G94" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H94">
         <v>10</v>
       </c>
       <c r="I94" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" s="1">
         <f>IF(I94&gt;0, 1,0)</f>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B95" s="1">
         <v>1</v>
@@ -3919,35 +3919,35 @@
         <v>1</v>
       </c>
       <c r="D95" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E95" s="3">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="F95" s="3">
         <f>LOG(E95)</f>
-        <v>4.6334684555795862</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G95" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H95">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" s="1">
         <f>IF(I95&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K95" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B96" s="1">
         <v>1</v>
@@ -3959,14 +3959,14 @@
         <v>40</v>
       </c>
       <c r="E96" s="3">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="F96" s="3">
         <f>LOG(E96)</f>
-        <v>4.5563025007672868</v>
+        <v>4.7781512503836439</v>
       </c>
       <c r="G96" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H96">
         <v>10</v>
@@ -3979,34 +3979,34 @@
         <v>1</v>
       </c>
       <c r="K96" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B97" s="1">
         <v>1</v>
       </c>
       <c r="C97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" s="1">
         <v>48</v>
       </c>
       <c r="E97" s="3">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F97" s="3">
         <f>LOG(E97)</f>
-        <v>4.6020599913279625</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G97" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I97" s="1">
         <v>2</v>
@@ -4016,12 +4016,12 @@
         <v>1</v>
       </c>
       <c r="K97" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
@@ -4033,51 +4033,51 @@
         <v>40</v>
       </c>
       <c r="E98" s="3">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="F98" s="3">
         <f>LOG(E98)</f>
-        <v>4.5440680443502757</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G98" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H98">
-        <v>5</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
       </c>
       <c r="J98" s="1">
         <f>IF(I98&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E99" s="3">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F99" s="3">
         <f>LOG(E99)</f>
-        <v>4.4771212547196626</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G99" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H99">
         <v>10</v>
@@ -4090,49 +4090,49 @@
         <v>1</v>
       </c>
       <c r="K99" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
       </c>
       <c r="C100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1">
         <v>40</v>
       </c>
       <c r="E100" s="3">
-        <v>50000</v>
+        <v>48000</v>
       </c>
       <c r="F100" s="3">
         <f>LOG(E100)</f>
-        <v>4.6989700043360187</v>
+        <v>4.6812412373755876</v>
       </c>
       <c r="G100" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H100">
-        <v>6</v>
-      </c>
-      <c r="I100" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
       </c>
       <c r="J100" s="1">
         <f>IF(I100&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B101" s="1">
         <v>1</v>
@@ -4144,32 +4144,32 @@
         <v>40</v>
       </c>
       <c r="E101" s="3">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="F101" s="3">
         <f>LOG(E101)</f>
-        <v>4.4771212547196626</v>
+        <v>4.5185139398778871</v>
       </c>
       <c r="G101" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H101">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I101" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" s="1">
         <f>IF(I101&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K101" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
@@ -4181,24 +4181,24 @@
         <v>40</v>
       </c>
       <c r="E102" s="3">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="F102" s="3">
         <f>LOG(E102)</f>
-        <v>4.4149733479708182</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G102" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H102">
-        <v>11</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1</v>
       </c>
       <c r="J102" s="1">
         <f>IF(I102&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="1">
         <v>14</v>
@@ -4206,29 +4206,29 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
       </c>
-      <c r="D103" s="1">
-        <v>98</v>
+      <c r="D103">
+        <v>40</v>
       </c>
       <c r="E103" s="3">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="F103" s="3">
         <f>LOG(E103)</f>
-        <v>4.653212513775344</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G103" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H103">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I103" s="1">
         <v>1</v>
@@ -4238,12 +4238,12 @@
         <v>1</v>
       </c>
       <c r="K103" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B104" s="1">
         <v>1</v>
@@ -4252,64 +4252,64 @@
         <v>1</v>
       </c>
       <c r="D104" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E104" s="3">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="F104" s="3">
         <f>LOG(E104)</f>
-        <v>4.4771212547196626</v>
+        <v>4.5797835966168101</v>
       </c>
       <c r="G104" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H104">
-        <v>6</v>
-      </c>
-      <c r="I104" s="1">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
       </c>
       <c r="J104" s="1">
         <f>IF(I104&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
       </c>
       <c r="D105" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E105" s="3">
-        <v>16400</v>
+        <v>30000</v>
       </c>
       <c r="F105" s="3">
         <f>LOG(E105)</f>
-        <v>4.214843848047698</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G105" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H105">
-        <v>4</v>
-      </c>
-      <c r="I105" s="1">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
       </c>
       <c r="J105" s="1">
         <f>IF(I105&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="1">
         <v>14</v>
@@ -4317,100 +4317,100 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
+        <v>35</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
         <v>48</v>
       </c>
-      <c r="B106" s="1">
-        <v>0</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1</v>
-      </c>
-      <c r="D106" s="1">
-        <v>40</v>
-      </c>
       <c r="E106" s="3">
-        <v>30000</v>
+        <v>26500</v>
       </c>
       <c r="F106" s="3">
         <f>LOG(E106)</f>
-        <v>4.4771212547196626</v>
+        <v>4.4232458739368079</v>
       </c>
       <c r="G106" s="1">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" s="1">
         <f>IF(I106&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K106" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
+        <v>35</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
         <v>48</v>
       </c>
-      <c r="B107" s="1">
-        <v>1</v>
-      </c>
-      <c r="C107" s="1">
-        <v>1</v>
-      </c>
-      <c r="D107" s="1">
-        <v>40</v>
-      </c>
       <c r="E107" s="3">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="F107" s="3">
         <f>LOG(E107)</f>
-        <v>4.4313637641589869</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G107" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I107" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" s="1">
         <f>IF(I107&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K107" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1">
         <v>40</v>
       </c>
       <c r="E108" s="3">
-        <v>37000</v>
+        <v>50000</v>
       </c>
       <c r="F108" s="3">
         <f>LOG(E108)</f>
-        <v>4.568201724066995</v>
+        <v>4.6989700043360187</v>
       </c>
       <c r="G108" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H108">
         <v>10</v>
@@ -4423,15 +4423,15 @@
         <v>1</v>
       </c>
       <c r="K108" s="1">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -4447,47 +4447,47 @@
         <v>4.3979400086720375</v>
       </c>
       <c r="G109" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H109">
-        <v>5</v>
-      </c>
-      <c r="I109" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
       </c>
       <c r="J109" s="1">
         <f>IF(I109&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E110" s="3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="F110" s="3">
         <f>LOG(E110)</f>
-        <v>4.6020599913279625</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G110" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I110" s="1">
         <v>1</v>
@@ -4497,15 +4497,15 @@
         <v>1</v>
       </c>
       <c r="K110" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -4514,20 +4514,20 @@
         <v>40</v>
       </c>
       <c r="E111" s="3">
-        <v>15000</v>
+        <v>43000</v>
       </c>
       <c r="F111" s="3">
         <f>LOG(E111)</f>
-        <v>4.1760912590556813</v>
+        <v>4.6334684555795862</v>
       </c>
       <c r="G111" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H111">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I111" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" s="1">
         <f>IF(I111&gt;0, 1,0)</f>
@@ -4539,29 +4539,29 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
       </c>
       <c r="C112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E112" s="3">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="F112" s="3">
         <f>LOG(E112)</f>
-        <v>4.4471580313422194</v>
+        <v>4.6020599913279625</v>
       </c>
       <c r="G112" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I112" s="1">
         <v>1</v>
@@ -4571,12 +4571,12 @@
         <v>1</v>
       </c>
       <c r="K112" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B113" s="1">
         <v>1</v>
@@ -4588,14 +4588,14 @@
         <v>40</v>
       </c>
       <c r="E113" s="3">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="F113" s="3">
         <f>LOG(E113)</f>
-        <v>4.3010299956639813</v>
+        <v>4.653212513775344</v>
       </c>
       <c r="G113" s="1">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H113">
         <v>10</v>
@@ -4608,58 +4608,58 @@
         <v>1</v>
       </c>
       <c r="K113" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B114" s="1">
         <v>1</v>
       </c>
       <c r="C114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E114" s="3">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="F114" s="3">
         <f>LOG(E114)</f>
-        <v>4.568201724066995</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G114" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H114">
-        <v>2</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1</v>
       </c>
       <c r="J114" s="1">
         <f>IF(I114&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
       </c>
       <c r="D115" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E115" s="3">
         <v>35000</v>
@@ -4669,10 +4669,10 @@
         <v>4.5440680443502757</v>
       </c>
       <c r="G115" s="1">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H115">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I115" s="1">
         <v>1</v>
@@ -4687,29 +4687,29 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116">
         <v>40</v>
       </c>
       <c r="E116" s="3">
-        <v>25000</v>
+        <v>37700</v>
       </c>
       <c r="F116" s="3">
         <f>LOG(E116)</f>
-        <v>4.3979400086720375</v>
+        <v>4.5763413502057926</v>
       </c>
       <c r="G116" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I116" s="1">
         <v>1</v>
@@ -4719,12 +4719,12 @@
         <v>1</v>
       </c>
       <c r="K116" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B117" s="1">
         <v>1</v>
@@ -4732,18 +4732,18 @@
       <c r="C117" s="1">
         <v>1</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>40</v>
       </c>
       <c r="E117" s="3">
-        <v>20000</v>
+        <v>26500</v>
       </c>
       <c r="F117" s="3">
         <f>LOG(E117)</f>
-        <v>4.3010299956639813</v>
+        <v>4.4232458739368079</v>
       </c>
       <c r="G117" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H117">
         <v>6</v>
@@ -4756,12 +4756,12 @@
         <v>1</v>
       </c>
       <c r="K117" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B118" s="1">
         <v>0</v>
@@ -4769,21 +4769,21 @@
       <c r="C118" s="1">
         <v>1</v>
       </c>
-      <c r="D118">
-        <v>40</v>
+      <c r="D118" s="1">
+        <v>50</v>
       </c>
       <c r="E118" s="3">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="F118" s="3">
         <f>LOG(E118)</f>
-        <v>4.1461280356782382</v>
+        <v>4.3222192947339195</v>
       </c>
       <c r="G118" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H118">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I118" s="1">
         <v>1</v>
@@ -4793,71 +4793,71 @@
         <v>1</v>
       </c>
       <c r="K118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
       </c>
       <c r="C119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" s="1">
         <v>40</v>
       </c>
       <c r="E119" s="3">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="F119" s="3">
         <f>LOG(E119)</f>
-        <v>4.8129133566428557</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G119" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H119">
-        <v>3</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I119" s="1">
+        <v>1</v>
       </c>
       <c r="J119" s="1">
         <f>IF(I119&gt;0, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B120" s="1">
         <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1">
         <v>40</v>
       </c>
       <c r="E120" s="3">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="F120" s="3">
         <f>LOG(E120)</f>
-        <v>4.3979400086720375</v>
+        <v>4.653212513775344</v>
       </c>
       <c r="G120" s="1">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H120">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I120" s="1">
         <v>2</v>
@@ -4867,21 +4867,21 @@
         <v>1</v>
       </c>
       <c r="K120" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E121" s="3">
         <v>43000</v>
@@ -4891,25 +4891,25 @@
         <v>4.6334684555795862</v>
       </c>
       <c r="G121" s="1">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H121">
         <v>10</v>
       </c>
       <c r="I121" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" s="1">
         <f>IF(I121&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K121" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B122" s="1">
         <v>1</v>
@@ -4921,17 +4921,17 @@
         <v>40</v>
       </c>
       <c r="E122" s="3">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="F122" s="3">
         <f>LOG(E122)</f>
-        <v>4.5797835966168101</v>
+        <v>4.5563025007672868</v>
       </c>
       <c r="G122" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H122">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I122" s="1">
         <v>1</v>
@@ -4941,21 +4941,21 @@
         <v>1</v>
       </c>
       <c r="K122" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E123" s="3">
         <v>35000</v>
@@ -4965,62 +4965,62 @@
         <v>4.5440680443502757</v>
       </c>
       <c r="G123" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H123">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I123" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" s="1">
         <f>IF(I123&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K123" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B124" s="1">
         <v>1</v>
       </c>
       <c r="C124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" s="1">
         <v>40</v>
       </c>
       <c r="E124" s="3">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="F124" s="3">
         <f>LOG(E124)</f>
-        <v>4.3424226808222066</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G124" s="1">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>10</v>
       </c>
       <c r="I124" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" s="1">
         <f>IF(I124&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K124" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B125" s="1">
         <v>0</v>
@@ -5029,57 +5029,57 @@
         <v>1</v>
       </c>
       <c r="D125" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E125" s="3">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="F125" s="3">
         <f>LOG(E125)</f>
-        <v>4.204119982655925</v>
+        <v>4.4149733479708182</v>
       </c>
       <c r="G125" s="1">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H125">
-        <v>5</v>
-      </c>
-      <c r="I125" s="1">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
       </c>
       <c r="J125" s="1">
         <f>IF(I125&gt;0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
       </c>
       <c r="D126" s="1">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E126" s="3">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="F126" s="3">
         <f>LOG(E126)</f>
-        <v>4.1760912590556813</v>
+        <v>4.653212513775344</v>
       </c>
       <c r="G126" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H126">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I126" s="1">
         <v>1</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B127" s="1">
         <v>1</v>
@@ -5106,54 +5106,54 @@
         <v>40</v>
       </c>
       <c r="E127" s="3">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="F127" s="3">
         <f>LOG(E127)</f>
-        <v>4.0791812460476251</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G127" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I127" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" s="1">
         <f>IF(I127&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K127" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" s="1">
         <v>40</v>
       </c>
       <c r="E128" s="3">
-        <v>40000</v>
+        <v>16400</v>
       </c>
       <c r="F128" s="3">
         <f>LOG(E128)</f>
-        <v>4.6020599913279625</v>
+        <v>4.214843848047698</v>
       </c>
       <c r="G128" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="H128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I128" s="1">
         <v>2</v>
@@ -5163,37 +5163,37 @@
         <v>1</v>
       </c>
       <c r="K128" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
       </c>
       <c r="C129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E129" s="3">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="F129" s="3">
         <f>LOG(E129)</f>
-        <v>4.5440680443502757</v>
+        <v>4.4771212547196626</v>
       </c>
       <c r="G129" s="1">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I129" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" s="1">
         <f>IF(I129&gt;0, 1,0)</f>
@@ -5205,10 +5205,10 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -5217,54 +5217,54 @@
         <v>40</v>
       </c>
       <c r="E130" s="3">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="F130" s="3">
         <f>LOG(E130)</f>
-        <v>4.3010299956639813</v>
+        <v>4.4313637641589869</v>
       </c>
       <c r="G130" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H130">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I130" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" s="1">
         <f>IF(I130&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K130" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" s="1">
         <v>40</v>
       </c>
       <c r="E131" s="3">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="F131" s="3">
         <f>LOG(E131)</f>
-        <v>4.2552725051033065</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G131" s="1">
         <v>20</v>
       </c>
       <c r="H131">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I131" s="1">
         <v>1</v>
@@ -5274,34 +5274,34 @@
         <v>1</v>
       </c>
       <c r="K131" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B132" s="1">
         <v>1</v>
       </c>
       <c r="C132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E132" s="3">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="F132" s="3">
         <f>LOG(E132)</f>
-        <v>4.7781512503836439</v>
+        <v>4.1760912590556813</v>
       </c>
       <c r="G132" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H132">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I132" s="1">
         <v>1</v>
@@ -5311,105 +5311,105 @@
         <v>1</v>
       </c>
       <c r="K132" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
       </c>
       <c r="C133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1">
         <v>40</v>
       </c>
       <c r="E133" s="3">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="F133" s="3">
         <f>LOG(E133)</f>
-        <v>4.4471580313422194</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G133" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H133">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" s="1">
         <f>IF(I133&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K133" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E134" s="3">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="F134" s="3">
         <f>LOG(E134)</f>
-        <v>4.3979400086720375</v>
+        <v>4.5440680443502757</v>
       </c>
       <c r="G134" s="1">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>10</v>
       </c>
       <c r="I134" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" s="1">
         <f>IF(I134&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K134" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B135" s="1">
         <v>1</v>
       </c>
       <c r="C135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" s="1">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E135" s="3">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="F135" s="3">
         <f>LOG(E135)</f>
-        <v>4</v>
+        <v>4.3979400086720375</v>
       </c>
       <c r="G135" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>6</v>
@@ -5422,12 +5422,12 @@
         <v>1</v>
       </c>
       <c r="K135" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B136" s="1">
         <v>1</v>
@@ -5435,55 +5435,55 @@
       <c r="C136" s="1">
         <v>1</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136">
         <v>40</v>
       </c>
       <c r="E136" s="3">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="F136" s="3">
         <f>LOG(E136)</f>
-        <v>4.4149733479708182</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G136" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H136">
         <v>6</v>
       </c>
       <c r="I136" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" s="1">
         <f>IF(I136&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K136" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137">
         <v>40</v>
       </c>
       <c r="E137" s="3">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="F137" s="3">
         <f>LOG(E137)</f>
-        <v>4.0606978403536118</v>
+        <v>4.1461280356782382</v>
       </c>
       <c r="G137" s="1">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H137">
         <v>6</v>
@@ -5496,71 +5496,71 @@
         <v>1</v>
       </c>
       <c r="K137" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B138" s="1">
         <v>1</v>
       </c>
       <c r="C138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" s="1">
         <v>40</v>
       </c>
       <c r="E138" s="3">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="F138" s="3">
         <f>LOG(E138)</f>
-        <v>4.3979400086720375</v>
+        <v>4.5797835966168101</v>
       </c>
       <c r="G138" s="1">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I138" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J138" s="1">
         <f>IF(I138&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K138" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
       </c>
       <c r="D139" s="1">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E139" s="3">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="F139" s="3">
         <f>LOG(E139)</f>
-        <v>4.0413926851582254</v>
+        <v>4.204119982655925</v>
       </c>
       <c r="G139" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I139" s="1">
         <v>2</v>
@@ -5570,86 +5570,86 @@
         <v>1</v>
       </c>
       <c r="K139" s="1">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B140" s="1">
         <v>1</v>
       </c>
       <c r="C140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" s="1">
         <v>40</v>
       </c>
       <c r="E140" s="3">
-        <v>53500</v>
+        <v>15000</v>
       </c>
       <c r="F140" s="3">
         <f>LOG(E140)</f>
-        <v>4.7283537820212285</v>
+        <v>4.1760912590556813</v>
       </c>
       <c r="G140" s="1">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>10</v>
       </c>
       <c r="I140" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" s="1">
         <f>IF(I140&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K140" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
       </c>
       <c r="D141" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E141" s="3">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="F141" s="3">
         <f>LOG(E141)</f>
-        <v>4.2304489213782741</v>
+        <v>4.0791812460476251</v>
       </c>
       <c r="G141" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H141">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I141" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" s="1">
         <f>IF(I141&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K141" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -5658,20 +5658,20 @@
         <v>1</v>
       </c>
       <c r="D142" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E142" s="3">
-        <v>73400</v>
+        <v>20000</v>
       </c>
       <c r="F142" s="3">
         <f>LOG(E142)</f>
-        <v>4.8656960599160701</v>
+        <v>4.3010299956639813</v>
       </c>
       <c r="G142" s="1">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H142">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I142" s="1">
         <v>1</v>
@@ -5681,12 +5681,12 @@
         <v>1</v>
       </c>
       <c r="K142" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B143" s="1">
         <v>1</v>
@@ -5698,128 +5698,128 @@
         <v>40</v>
       </c>
       <c r="E143" s="3">
-        <v>10500</v>
+        <v>26000</v>
       </c>
       <c r="F143" s="3">
         <f>LOG(E143)</f>
-        <v>4.0211892990699383</v>
+        <v>4.4149733479708182</v>
       </c>
       <c r="G143" s="1">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H143">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I143" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" s="1">
         <f>IF(I143&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K143" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" s="1">
         <v>40</v>
       </c>
       <c r="E144" s="3">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="F144" s="3">
         <f>LOG(E144)</f>
-        <v>4.1613680022349753</v>
+        <v>4.0606978403536118</v>
       </c>
       <c r="G144" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I144" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" s="1">
         <f>IF(I144&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K144" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B145" s="1">
         <v>1</v>
       </c>
       <c r="C145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E145" s="3">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="F145" s="3">
         <f>LOG(E145)</f>
-        <v>4.4149733479708182</v>
+        <v>4.0413926851582254</v>
       </c>
       <c r="G145" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H145">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I145" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" s="1">
         <f>IF(I145&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K145" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E146" s="3">
-        <v>24250</v>
+        <v>17000</v>
       </c>
       <c r="F146" s="3">
         <f>LOG(E146)</f>
-        <v>4.3847117429382827</v>
+        <v>4.2304489213782741</v>
       </c>
       <c r="G146" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I146" s="1">
         <v>2</v>
@@ -5829,37 +5829,37 @@
         <v>1</v>
       </c>
       <c r="K146" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
       </c>
       <c r="D147" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E147" s="3">
-        <v>32000</v>
+        <v>73400</v>
       </c>
       <c r="F147" s="3">
         <f>LOG(E147)</f>
-        <v>4.5051499783199063</v>
+        <v>4.8656960599160701</v>
       </c>
       <c r="G147" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I147" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" s="1">
         <f>IF(I147&gt;0, 1,0)</f>
@@ -5871,44 +5871,44 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B148" s="1">
         <v>1</v>
       </c>
       <c r="C148" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E148" s="3">
-        <v>15190</v>
+        <v>10500</v>
       </c>
       <c r="F148" s="3">
         <f>LOG(E148)</f>
-        <v>4.181557773862786</v>
+        <v>4.0211892990699383</v>
       </c>
       <c r="G148" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H148">
         <v>10</v>
       </c>
       <c r="I148" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" s="1">
         <f>IF(I148&gt;0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="K148" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B149" s="1">
         <v>1</v>
@@ -5916,21 +5916,21 @@
       <c r="C149" s="1">
         <v>1</v>
       </c>
-      <c r="D149">
-        <v>40</v>
+      <c r="D149" s="1">
+        <v>30</v>
       </c>
       <c r="E149" s="3">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="F149" s="3">
         <f>LOG(E149)</f>
-        <v>4.2552725051033065</v>
+        <v>4.5051499783199063</v>
       </c>
       <c r="G149" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H149">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I149" s="1">
         <v>2</v>
@@ -5940,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="K149" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
@@ -5948,7 +5948,7 @@
         <v>66</v>
       </c>
       <c r="B150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
@@ -5957,20 +5957,20 @@
         <v>40</v>
       </c>
       <c r="E150" s="3">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="F150" s="3">
         <f>LOG(E150)</f>
-        <v>4</v>
+        <v>4.2552725051033065</v>
       </c>
       <c r="G150" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H150">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I150" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" s="1">
         <f>IF(I150&gt;0, 1,0)</f>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B151" s="1">
         <v>0</v>
@@ -5990,21 +5990,21 @@
       <c r="C151" s="1">
         <v>1</v>
       </c>
-      <c r="D151" s="1">
-        <v>30</v>
+      <c r="D151">
+        <v>40</v>
       </c>
       <c r="E151" s="3">
-        <v>51500</v>
+        <v>10000</v>
       </c>
       <c r="F151" s="3">
         <f>LOG(E151)</f>
-        <v>4.7118072290411908</v>
+        <v>4</v>
       </c>
       <c r="G151" s="1">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I151" s="1">
         <v>1</v>
@@ -6014,34 +6014,34 @@
         <v>1</v>
       </c>
       <c r="K151" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" s="1">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>30</v>
       </c>
       <c r="E152" s="3">
-        <v>17000</v>
+        <v>51500</v>
       </c>
       <c r="F152" s="3">
         <f>LOG(E152)</f>
-        <v>4.2304489213782741</v>
+        <v>4.7118072290411908</v>
       </c>
       <c r="G152" s="1">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I152" s="1">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="K152" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
@@ -7341,8 +7341,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AG301" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K301">
-      <sortCondition ref="A1:A301"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K71">
+      <sortCondition descending="1" ref="C1:C301"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\GitHub\econom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D896E307-D1B0-46E2-BA9D-8CCFDEFE48F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105CE06D-521C-4C19-AD20-93590DB988F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,6 +188,1983 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$L$2:$L$168</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$168</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>1.2288223924459305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89670823232540875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.494513720542348</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8996929958893845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6642283202410435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1587420407833915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.494513720542348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6775128866458644</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49817124018078268</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1956109764338785</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39853699214462612</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.494513720542348</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8266278806628697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.59049044894007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1623995604218262</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1623995604218262</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.989027441084696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1623995604218262</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.328456640482087</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.328456640482087</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3450623484881132</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9926849607231307</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1956109764338785</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.86349681631335662</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1683776153039955</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3384200652857028</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6605708006026088</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.36532557613257394</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.91331394033143487</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.328456640482087</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.6642283202410435</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39853699214462612</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92991964833746099</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.49817124018078268</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.328456640482087</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.34539872652534265</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.258376288819548</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.88010252431938274</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.4649598241687305</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.494513720542348</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.258376288819548</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.92991964833746099</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1623995604218262</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.112582436403748</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2288223924459305</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.54466722259765565</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4280908885182435</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7269936326267132</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.96313106434951312</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.73065115226514787</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9926849607231307</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5941479685785045</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7602050486387655</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.59780548821693924</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.564594072204887</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.38525242573980528</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2620338084579827</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.1421363327773655</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.53138265619283487</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.328456640482087</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.33377473092112436</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.53138265619283487</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.53138265619283487</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0959767283977218</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.53470379779404009</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.328456640482087</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.6642283202410435</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.328456640482087</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.49817124018078268</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.59780548821693924</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8266278806628697</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.6642283202410435</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1623995604218262</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92991964833746099</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.71404544425912175</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.63739349610330542</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4280908885182435</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1623995604218262</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49817124018078268</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.6642283202410435</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.39853699214462612</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.89670823232540875</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.6642283202410435</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.6642283202410435</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.656913280964174</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.3948794725061915</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.1623995604218262</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.0059695271279514</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.92991964833746099</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.0959767283977218</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.1956109764338785</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.88010252431938274</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.328456640482087</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.39853699214462612</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.73065115226514787</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.328456640482087</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.86349681631335662</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.79401853401614342</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.5941479685785045</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.3948794725061915</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.494513720542348</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.64762261223501749</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2620338084579827</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2288223924459305</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.6642283202410435</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.59780548821693924</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.328456640482087</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.1623995604218262</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.1623995604218262</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.69743973625309574</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.564594072204887</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.86349681631335662</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.6273593845905567</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.092319208759287</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.2520703836543672</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.4613023045302957</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.494513720542348</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.2620338084579827</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.1623995604218262</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.73065115226514787</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.2620338084579827</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.564594072204887</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.61441119622296525</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.6642283202410435</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.4280908885182435</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.1623995604218262</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.96313106434951312</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.494513720542348</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.83028540030130438</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.328456640482087</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.656913280964174</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.78976747276660075</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.86349681631335662</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.328456640482087</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.99634248036156536</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.8266278806628697</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.6642283202410435</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.477908012536322</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.6605708006026088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9156-490F-B2CB-21A2FA687104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="19942144"/>
+        <c:axId val="19948800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="19942144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>exp</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19948800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="19948800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(salary)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19942144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>122844</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>136683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>449619</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>121397</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{890EADA1-005E-59DC-F0F7-3F143789D9D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,9 +2490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4344A887-B5B0-48AF-8CA4-C7D27A5A956A}">
   <dimension ref="A1:Y280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="68" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA102" sqref="AA102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3186,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" ref="K41:K72" si="8">IF(J41&gt;0,1,0)</f>
+        <f t="shared" ref="K41:K62" si="8">IF(J41&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="L41" s="1">
@@ -11060,7 +13037,7 @@
       </c>
       <c r="J160" s="1"/>
       <c r="K160" s="1">
-        <f t="shared" ref="K160:K191" si="22">IF(J160&gt;0,1,0)</f>
+        <f t="shared" ref="K160:K167" si="22">IF(J160&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="L160" s="1">
@@ -11171,7 +13148,7 @@
         <v>40000</v>
       </c>
       <c r="B162" s="1">
-        <f t="shared" ref="B162:B193" si="23">LOG(A162)</f>
+        <f t="shared" ref="B162:B167" si="23">LOG(A162)</f>
         <v>4.6020599913279625</v>
       </c>
       <c r="C162" s="1">
@@ -11222,7 +13199,7 @@
         <v>12</v>
       </c>
       <c r="R162">
-        <f t="shared" ref="R162:R193" si="25">IF(Q162&gt;9,1,0)</f>
+        <f t="shared" ref="R162:R167" si="25">IF(Q162&gt;9,1,0)</f>
         <v>1</v>
       </c>
       <c r="S162" s="1">
@@ -11677,6 +13654,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
